--- a/data/hotels_by_city/Houston/Houston_shard_349.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_349.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g1009393-d8553268-Reviews-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Hotel-Suites-Shenandoah-The-Woodlands.h11921902.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,708 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r598646821-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>1009393</t>
+  </si>
+  <si>
+    <t>8553268</t>
+  </si>
+  <si>
+    <t>598646821</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>This is a great hotel!</t>
+  </si>
+  <si>
+    <t>Our family of 13 stayed overnight.  Super clean and new.   Very nice part north of the Woodlands.   Swimming area superb.   Great location one block off Interstate.  We were within a mile or less of some great eating places.  The bar was very busy.  Beautiful location and super clean.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r597498450-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>597498450</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>family reunion</t>
+  </si>
+  <si>
+    <t>awesome room, friendly staff, great breakfast, enjoyed the meal served for our event. the staff accommodate our 3 day event. will definitely revisit hotel, rooms are large and spacious, great locations. definitely a family friendly hotel.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r580526512-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>580526512</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice, newer hotel </t>
+  </si>
+  <si>
+    <t>Chose this property for its proximity to Texas Children’s Hospital. The property is newer and has an excellent on property restaurant. I was not impressed with the fitness room, actually it was the worst equipped one I’ve seen in a while. For a property this new it was an unpleasant surprise.  The room was clean with a large tv. Unfortunately the remote did not work so I was unable to enjoy it.  The rooms have showers only, no bathtubs. I prefer relaxing in a bathtub but IHG apparently does not feel I need the option taking a bath. They have a few ADA rooms with tubs but I don’t feel good occupying an ADA room when someone who really requires it may be denied. All in all this is a nice property. I doubt I return but that is due to my personal preference of a bathtub and a well equipped fitness center. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Chose this property for its proximity to Texas Children’s Hospital. The property is newer and has an excellent on property restaurant. I was not impressed with the fitness room, actually it was the worst equipped one I’ve seen in a while. For a property this new it was an unpleasant surprise.  The room was clean with a large tv. Unfortunately the remote did not work so I was unable to enjoy it.  The rooms have showers only, no bathtubs. I prefer relaxing in a bathtub but IHG apparently does not feel I need the option taking a bath. They have a few ADA rooms with tubs but I don’t feel good occupying an ADA room when someone who really requires it may be denied. All in all this is a nice property. I doubt I return but that is due to my personal preference of a bathtub and a well equipped fitness center. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r571566325-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>571566325</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I always stay here </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent friendly service, they always make you feel welcome.  I am an ihg platinum member so spend a lot of time in Holiday Inn s .  This is easily one of the best, clean,  tidy. Plus the restaurant Johnny’s is excellent . </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r565859045-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>565859045</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Very new and clean</t>
+  </si>
+  <si>
+    <t>I stayed here overnight prior to an early flight out of IAH, and found it to be a very nice and very clean hotel with friendly staff. The room was very large and well appointed. I will definitely stay here again. It’s a straight shot down the Hardy toll road to IAH.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r564895231-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>564895231</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay here</t>
+  </si>
+  <si>
+    <t>Stayed for one night after my daughter's dance competition nearby. Location is great; very close to I-45 and many restaurants/shopping very close. Hotel is new and clean, room was great. The breakfast buffet is decent. It is much better than other hotels that only offer continental breakfast because it has hot food (eggs, sausage, biscuits/gravy, potatoes); however, I have seen better selection at other hotels. Also, there were a few cereals out, but again, selection was limited. Overall, a great experience and would recommend to anyone staying in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r536503943-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>536503943</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Not A Pleasant Stay For Our Son's Wedding</t>
+  </si>
+  <si>
+    <t>My hubby and I are both seniors, both have bad backs and there are certain things we expect when staying in a hotel.   With all the hotels in The Woodlands area, I refuse to be a repeat customer when we do not receive an apology after experiencing substantially below par service.  That said, the Holiday Inn and Suites in Shenandoah will be, to myself, my husband, our family and friends, a hotel that won’t get our business again.  When a bad stay occurs on my son’s wedding day, it adds insult to injury.   What I expected was a reasonable bed height or at least a step stool (none was available when I called the front desk) to get onto their high mattresses,  a toilet that flushed properly instead of running all night, a room that didn’t smell of strong contact cement with no ability to bring in outside fresh air (my headache lasted all night and was gone when we changed rooms)  gratis breakfast, more than one overworked staff in a packed breakfast room, a wait less than three hours for one of only two luggage dolly’s, (purchasing a few more dolly’s when the hotel is packed would be a good idea?), three days of squishing into the one working elevator (the other was broken throughout our stay), hot water for showers on my son’s wedding day (myself and two other couples in our group took cold showers after waiting...My hubby and I are both seniors, both have bad backs and there are certain things we expect when staying in a hotel.   With all the hotels in The Woodlands area, I refuse to be a repeat customer when we do not receive an apology after experiencing substantially below par service.  That said, the Holiday Inn and Suites in Shenandoah will be, to myself, my husband, our family and friends, a hotel that won’t get our business again.  When a bad stay occurs on my son’s wedding day, it adds insult to injury.   What I expected was a reasonable bed height or at least a step stool (none was available when I called the front desk) to get onto their high mattresses,  a toilet that flushed properly instead of running all night, a room that didn’t smell of strong contact cement with no ability to bring in outside fresh air (my headache lasted all night and was gone when we changed rooms)  gratis breakfast, more than one overworked staff in a packed breakfast room, a wait less than three hours for one of only two luggage dolly’s, (purchasing a few more dolly’s when the hotel is packed would be a good idea?), three days of squishing into the one working elevator (the other was broken throughout our stay), hot water for showers on my son’s wedding day (myself and two other couples in our group took cold showers after waiting 20 minutes for someone to arrive) my additional room remaining the same price as my confirmation and not having to bring in written proof and arguing with the front desk to get the pre-agreed upon rate and finally, a General Manager that gave a darn when I called or left messages  four straight days in a row.  A week after we checked out, we have yet to be contacted by Lisa Nehal .  Other’s in our group were ignored after having unpleasant experiences.  This “mother of the groom” was stressed enough without staying in a hotel lacking the ability to understand the term “Customer Service”.  The hotel has a shuttle, is fairly new, clean looking, convenient to I45 and The Woodlands, has a swimming pool, reasonable rates for seniors who are not disabled and outside there is a smoking area for those who smoke.  Breakfast, that isn’t included but was supposed to be gratis, had a variety of choices and was tasty and the front desk young lady was new but fairly clueless.I do want to give a hearty "Thank you" to the lady who, on her day off, helped the clueless younger lady fix our second room reservation.  She deserves a raise...maybe she should be the General Manager as she managed to give us excellent "customer service" without even being on duty.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded November 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2017</t>
+  </si>
+  <si>
+    <t>My hubby and I are both seniors, both have bad backs and there are certain things we expect when staying in a hotel.   With all the hotels in The Woodlands area, I refuse to be a repeat customer when we do not receive an apology after experiencing substantially below par service.  That said, the Holiday Inn and Suites in Shenandoah will be, to myself, my husband, our family and friends, a hotel that won’t get our business again.  When a bad stay occurs on my son’s wedding day, it adds insult to injury.   What I expected was a reasonable bed height or at least a step stool (none was available when I called the front desk) to get onto their high mattresses,  a toilet that flushed properly instead of running all night, a room that didn’t smell of strong contact cement with no ability to bring in outside fresh air (my headache lasted all night and was gone when we changed rooms)  gratis breakfast, more than one overworked staff in a packed breakfast room, a wait less than three hours for one of only two luggage dolly’s, (purchasing a few more dolly’s when the hotel is packed would be a good idea?), three days of squishing into the one working elevator (the other was broken throughout our stay), hot water for showers on my son’s wedding day (myself and two other couples in our group took cold showers after waiting...My hubby and I are both seniors, both have bad backs and there are certain things we expect when staying in a hotel.   With all the hotels in The Woodlands area, I refuse to be a repeat customer when we do not receive an apology after experiencing substantially below par service.  That said, the Holiday Inn and Suites in Shenandoah will be, to myself, my husband, our family and friends, a hotel that won’t get our business again.  When a bad stay occurs on my son’s wedding day, it adds insult to injury.   What I expected was a reasonable bed height or at least a step stool (none was available when I called the front desk) to get onto their high mattresses,  a toilet that flushed properly instead of running all night, a room that didn’t smell of strong contact cement with no ability to bring in outside fresh air (my headache lasted all night and was gone when we changed rooms)  gratis breakfast, more than one overworked staff in a packed breakfast room, a wait less than three hours for one of only two luggage dolly’s, (purchasing a few more dolly’s when the hotel is packed would be a good idea?), three days of squishing into the one working elevator (the other was broken throughout our stay), hot water for showers on my son’s wedding day (myself and two other couples in our group took cold showers after waiting 20 minutes for someone to arrive) my additional room remaining the same price as my confirmation and not having to bring in written proof and arguing with the front desk to get the pre-agreed upon rate and finally, a General Manager that gave a darn when I called or left messages  four straight days in a row.  A week after we checked out, we have yet to be contacted by Lisa Nehal .  Other’s in our group were ignored after having unpleasant experiences.  This “mother of the groom” was stressed enough without staying in a hotel lacking the ability to understand the term “Customer Service”.  The hotel has a shuttle, is fairly new, clean looking, convenient to I45 and The Woodlands, has a swimming pool, reasonable rates for seniors who are not disabled and outside there is a smoking area for those who smoke.  Breakfast, that isn’t included but was supposed to be gratis, had a variety of choices and was tasty and the front desk young lady was new but fairly clueless.I do want to give a hearty "Thank you" to the lady who, on her day off, helped the clueless younger lady fix our second room reservation.  She deserves a raise...maybe she should be the General Manager as she managed to give us excellent "customer service" without even being on duty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r534638222-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>534638222</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>Pleasant Stay's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've stayed here on my last 2 business trips to The Woodlands and have been very satisfied. Essa in the bar is amazing and attentive. My room was nice and satisfactory and met my needs. I do want to single out one employee at front desk, Alec is very pleasant and helpful. He remembered me from my last visit and greeted me with a friendly smile. I'll stay here o. My upcoming visits to The Woodlands. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r533408824-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>533408824</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Had a wonderful weekend</t>
+  </si>
+  <si>
+    <t>Even though we live in Houston we like to stay somewhere close to the Texas Renaissance Festival when we visit.  We found this hotel in the Woodlands and thought to give it a try.  The hotel staff were very friendly and helpful.  The room was clean and had a modern style to it.  The breakfast buffet was good.  The pool was very large and had a nice spa.  The beds were very comfortable with plenty of pillows.My only complaint was the slow elevator and the lack of a stair access.  The hotel had two elevators but one was out of order so everyone relied on one elevator.  The elevator itself was slow moving.  We had a room on the second floor and I don't mind taking the stairs but the stairs in this hotel were one way (out the building).  You could go down the stairs and end up outside the building but you couldn't go upstairs to your floor (the doors had no handles from the stairwell).MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Even though we live in Houston we like to stay somewhere close to the Texas Renaissance Festival when we visit.  We found this hotel in the Woodlands and thought to give it a try.  The hotel staff were very friendly and helpful.  The room was clean and had a modern style to it.  The breakfast buffet was good.  The pool was very large and had a nice spa.  The beds were very comfortable with plenty of pillows.My only complaint was the slow elevator and the lack of a stair access.  The hotel had two elevators but one was out of order so everyone relied on one elevator.  The elevator itself was slow moving.  We had a room on the second floor and I don't mind taking the stairs but the stairs in this hotel were one way (out the building).  You could go down the stairs and end up outside the building but you couldn't go upstairs to your floor (the doors had no handles from the stairwell).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r510204669-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>510204669</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Shenandoah, TX</t>
+  </si>
+  <si>
+    <t>when you're traveling in The Woodlands area of Houston and need a place to stay this hotel is great. New decor and room appointments are very nice. Johnny's Italian Steakhouse is the restaurant in the hotel. My room included breakfast for 2 and made to order - not some lousy buffet. The drinks and food were awesome and very reasonably priced. Great value, attentive welcoming staff and nice property all the way around.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r510127034-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>510127034</t>
+  </si>
+  <si>
+    <t>Weekend Getaway</t>
+  </si>
+  <si>
+    <t>My husband and I just wanted to take a quick getaway for our anniversary.  This was a convenient hotel to all of the sights and activities in The Woodlands.  It is tucked away in a quiet location.  The hotel appears new and the pool area would have been VERY relaxing if it hadn't started to rain on us.  But our room was beautifully decorated with a nice forest view.  The only complaint I had was a loose toilet seat.  Other than that the bathroom was spacious and the modern décor of our room and the hotel made it an overall great experience.  The gentleman at the front desk was super friendly and helpful!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>My husband and I just wanted to take a quick getaway for our anniversary.  This was a convenient hotel to all of the sights and activities in The Woodlands.  It is tucked away in a quiet location.  The hotel appears new and the pool area would have been VERY relaxing if it hadn't started to rain on us.  But our room was beautifully decorated with a nice forest view.  The only complaint I had was a loose toilet seat.  Other than that the bathroom was spacious and the modern décor of our room and the hotel made it an overall great experience.  The gentleman at the front desk was super friendly and helpful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r509340762-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>509340762</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>The best holiday inn !!! Hidden Gem</t>
+  </si>
+  <si>
+    <t>I'm an IHG member and stay at holiday inns every where and all the time. This is the best by far! It's clean and beautiful and smells nice. The staff is extra attentive. Johnny's Italian steak house and grill has the most amazing Sunday brunch. I was expecting typical hotel food, but there was nothing typical. A huge selection of breakfast and lunch. I really can't say enough about it. The location is great too. If I'm in the area again I will stay here again no doubt. Perfect!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Dani H, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>I'm an IHG member and stay at holiday inns every where and all the time. This is the best by far! It's clean and beautiful and smells nice. The staff is extra attentive. Johnny's Italian steak house and grill has the most amazing Sunday brunch. I was expecting typical hotel food, but there was nothing typical. A huge selection of breakfast and lunch. I really can't say enough about it. The location is great too. If I'm in the area again I will stay here again no doubt. Perfect!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r506140794-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>506140794</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Best Holiday Inn</t>
+  </si>
+  <si>
+    <t>Having a stressful day at a local hospital and ending with an unexpected over night stay this place made a difference!!! Starting with the front staff... Luke and Ethan are by far the best front staff workers of the many, many hotels I have stayed in on the journey with my sons health!! They rooms were spotless clean, the pillows and beds were great. My son enjoyed the pool and hot tub. It was very clean, well taken care of area. I personally enjoyed the breakfast we were able to enjoy after a night of having to keep my 12 year old awake all night for his testing today!! I just can't say enough about how great this place was!!! Thank you for making our stay so great!!! We will be back again since we have made the local hospital our home hospital!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Having a stressful day at a local hospital and ending with an unexpected over night stay this place made a difference!!! Starting with the front staff... Luke and Ethan are by far the best front staff workers of the many, many hotels I have stayed in on the journey with my sons health!! They rooms were spotless clean, the pillows and beds were great. My son enjoyed the pool and hot tub. It was very clean, well taken care of area. I personally enjoyed the breakfast we were able to enjoy after a night of having to keep my 12 year old awake all night for his testing today!! I just can't say enough about how great this place was!!! Thank you for making our stay so great!!! We will be back again since we have made the local hospital our home hospital!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r491369923-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>491369923</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probably not again </t>
+  </si>
+  <si>
+    <t>We were in town for a graduation and picked this hotel for its location. On a positive note, the location is convenient and access off the interstate is easy. Our room seemed clean and modern. Unfortunately we had a few issues. We checked in very late after a long, long day of travel. We opened the door to the room and smelled something burning. We never did figure out what that was because only half the lights would turn on. Four of us scoured the room for a "magic switch" which we never did find. So back to the front desk we went. The clerk was helpful and put us in another room (all the lights worked in this one). On our third and last night, after another long day of travel, neither of our room keys would work. Again, the clerk was friendly, but it was a bit frustrating to have to trek all the way back downstairs after a long day. We also noted that there was a tray of leftover food and dirty dishes from room service left in the hallway by our room (not our dishes) for over 24 hours. The thing that was most unappealing to us was the lack of continental breakfast. I'm sure the restaurant downstairs is wonderful, but I'm not paying $12.99 times four (for two adults and two children) for a breakfast buffet. Some other people staying in the hotel shared...We were in town for a graduation and picked this hotel for its location. On a positive note, the location is convenient and access off the interstate is easy. Our room seemed clean and modern. Unfortunately we had a few issues. We checked in very late after a long, long day of travel. We opened the door to the room and smelled something burning. We never did figure out what that was because only half the lights would turn on. Four of us scoured the room for a "magic switch" which we never did find. So back to the front desk we went. The clerk was helpful and put us in another room (all the lights worked in this one). On our third and last night, after another long day of travel, neither of our room keys would work. Again, the clerk was friendly, but it was a bit frustrating to have to trek all the way back downstairs after a long day. We also noted that there was a tray of leftover food and dirty dishes from room service left in the hallway by our room (not our dishes) for over 24 hours. The thing that was most unappealing to us was the lack of continental breakfast. I'm sure the restaurant downstairs is wonderful, but I'm not paying $12.99 times four (for two adults and two children) for a breakfast buffet. Some other people staying in the hotel shared they were given free vouchers for breakfast, but we were never offered anything like this even though we are "gold elite" IHG rewards club members. I also noted that the pending charge on our credit card is $75 more than my bill. I assume this will be corrected when the charge clears but it's just one more nagging negative thing about our stay that I have to continue to follow up on (48 hours later it's still not correct). I think for the price, we can do better next time by trying somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>We were in town for a graduation and picked this hotel for its location. On a positive note, the location is convenient and access off the interstate is easy. Our room seemed clean and modern. Unfortunately we had a few issues. We checked in very late after a long, long day of travel. We opened the door to the room and smelled something burning. We never did figure out what that was because only half the lights would turn on. Four of us scoured the room for a "magic switch" which we never did find. So back to the front desk we went. The clerk was helpful and put us in another room (all the lights worked in this one). On our third and last night, after another long day of travel, neither of our room keys would work. Again, the clerk was friendly, but it was a bit frustrating to have to trek all the way back downstairs after a long day. We also noted that there was a tray of leftover food and dirty dishes from room service left in the hallway by our room (not our dishes) for over 24 hours. The thing that was most unappealing to us was the lack of continental breakfast. I'm sure the restaurant downstairs is wonderful, but I'm not paying $12.99 times four (for two adults and two children) for a breakfast buffet. Some other people staying in the hotel shared...We were in town for a graduation and picked this hotel for its location. On a positive note, the location is convenient and access off the interstate is easy. Our room seemed clean and modern. Unfortunately we had a few issues. We checked in very late after a long, long day of travel. We opened the door to the room and smelled something burning. We never did figure out what that was because only half the lights would turn on. Four of us scoured the room for a "magic switch" which we never did find. So back to the front desk we went. The clerk was helpful and put us in another room (all the lights worked in this one). On our third and last night, after another long day of travel, neither of our room keys would work. Again, the clerk was friendly, but it was a bit frustrating to have to trek all the way back downstairs after a long day. We also noted that there was a tray of leftover food and dirty dishes from room service left in the hallway by our room (not our dishes) for over 24 hours. The thing that was most unappealing to us was the lack of continental breakfast. I'm sure the restaurant downstairs is wonderful, but I'm not paying $12.99 times four (for two adults and two children) for a breakfast buffet. Some other people staying in the hotel shared they were given free vouchers for breakfast, but we were never offered anything like this even though we are "gold elite" IHG rewards club members. I also noted that the pending charge on our credit card is $75 more than my bill. I assume this will be corrected when the charge clears but it's just one more nagging negative thing about our stay that I have to continue to follow up on (48 hours later it's still not correct). I think for the price, we can do better next time by trying somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r480189400-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>480189400</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Very nice, well appointed, modern, clean hotel</t>
+  </si>
+  <si>
+    <t>Came to Holiday Inn in Shenandoah for an event that was being held at this hotel. Very modern and nice hotel, not sure how old it is, but appears from every aspect as being new. The lobby is beautiful, the Restaurant and bar area is very nice. Buffet Breakfast every morning. There were plenty of choices to make everyone happy, every day several of them changed for variety. Did not try dinner there, but other that did eat there said the Steaks and Italian fare was awesome. Room was very modern, huge flatscreen tv, microwave and refrigerator, nice desk area and free WiFi, bed was comfy with nice choice of pillows. Did not visit the pool area, but it looked clean and inviting. Parking lot and exterior was clean and taken care of. This hotel is about 1 block off of the freeway, but very accessible. Being a block off there is no freeway noise. The only downside was that only one elevator was working for almost the entire week we were there. There were long waits to get an elevator up or down due to the event being held. One lady had mentioned they had been here for 2 weeks and it had been broken the whole time they had been here. The elevator company did finally show up late in the week and it was operational for the duration of our stay which helped with the long waits....Came to Holiday Inn in Shenandoah for an event that was being held at this hotel. Very modern and nice hotel, not sure how old it is, but appears from every aspect as being new. The lobby is beautiful, the Restaurant and bar area is very nice. Buffet Breakfast every morning. There were plenty of choices to make everyone happy, every day several of them changed for variety. Did not try dinner there, but other that did eat there said the Steaks and Italian fare was awesome. Room was very modern, huge flatscreen tv, microwave and refrigerator, nice desk area and free WiFi, bed was comfy with nice choice of pillows. Did not visit the pool area, but it looked clean and inviting. Parking lot and exterior was clean and taken care of. This hotel is about 1 block off of the freeway, but very accessible. Being a block off there is no freeway noise. The only downside was that only one elevator was working for almost the entire week we were there. There were long waits to get an elevator up or down due to the event being held. One lady had mentioned they had been here for 2 weeks and it had been broken the whole time they had been here. The elevator company did finally show up late in the week and it was operational for the duration of our stay which helped with the long waits. All in all I would come back in a heartbeat. All of the desk staff would greet you when you were coming or going. Every encounter with every employee was a good one, friendly and cordial.MoreShow less</t>
+  </si>
+  <si>
+    <t>Came to Holiday Inn in Shenandoah for an event that was being held at this hotel. Very modern and nice hotel, not sure how old it is, but appears from every aspect as being new. The lobby is beautiful, the Restaurant and bar area is very nice. Buffet Breakfast every morning. There were plenty of choices to make everyone happy, every day several of them changed for variety. Did not try dinner there, but other that did eat there said the Steaks and Italian fare was awesome. Room was very modern, huge flatscreen tv, microwave and refrigerator, nice desk area and free WiFi, bed was comfy with nice choice of pillows. Did not visit the pool area, but it looked clean and inviting. Parking lot and exterior was clean and taken care of. This hotel is about 1 block off of the freeway, but very accessible. Being a block off there is no freeway noise. The only downside was that only one elevator was working for almost the entire week we were there. There were long waits to get an elevator up or down due to the event being held. One lady had mentioned they had been here for 2 weeks and it had been broken the whole time they had been here. The elevator company did finally show up late in the week and it was operational for the duration of our stay which helped with the long waits....Came to Holiday Inn in Shenandoah for an event that was being held at this hotel. Very modern and nice hotel, not sure how old it is, but appears from every aspect as being new. The lobby is beautiful, the Restaurant and bar area is very nice. Buffet Breakfast every morning. There were plenty of choices to make everyone happy, every day several of them changed for variety. Did not try dinner there, but other that did eat there said the Steaks and Italian fare was awesome. Room was very modern, huge flatscreen tv, microwave and refrigerator, nice desk area and free WiFi, bed was comfy with nice choice of pillows. Did not visit the pool area, but it looked clean and inviting. Parking lot and exterior was clean and taken care of. This hotel is about 1 block off of the freeway, but very accessible. Being a block off there is no freeway noise. The only downside was that only one elevator was working for almost the entire week we were there. There were long waits to get an elevator up or down due to the event being held. One lady had mentioned they had been here for 2 weeks and it had been broken the whole time they had been here. The elevator company did finally show up late in the week and it was operational for the duration of our stay which helped with the long waits. All in all I would come back in a heartbeat. All of the desk staff would greet you when you were coming or going. Every encounter with every employee was a good one, friendly and cordial.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r463889239-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>463889239</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Great Meeting Venue, Food and Staff!</t>
+  </si>
+  <si>
+    <t>Our Company held 2 days of meetings here and absolutely nothing negative about the entire experience could be said.  I was responsible for booking a venue and this beautiful new Holiday Inn was perfect!  Food requirewas outstanding and our attendees were more than pleasantly surprised.  I did not stay at the hotel but those who did said their accommodations were excellent!  The staff was very easy to work with and met every need.  Audio visual requirements were a non issue.  Highly recommend!  Thanks Sharon and Dani!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Our Company held 2 days of meetings here and absolutely nothing negative about the entire experience could be said.  I was responsible for booking a venue and this beautiful new Holiday Inn was perfect!  Food requirewas outstanding and our attendees were more than pleasantly surprised.  I did not stay at the hotel but those who did said their accommodations were excellent!  The staff was very easy to work with and met every need.  Audio visual requirements were a non issue.  Highly recommend!  Thanks Sharon and Dani!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r463314764-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>463314764</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>A great place for a short or an extended stay</t>
+  </si>
+  <si>
+    <t>The hotel owner, the manager and the desk staff were welcoming and wonderful from the first day we walked in. We were having our home remodeled and stayed at this hotel during renovations. We stayed forty four nights with them. They helped us every way they could to make our stay comfortable and enjoyable. We stayed in a beautiful suite. From making our extended stay easy with checking in and out to answering every question, they were always warm, professional and obliging to help us. They made us feel so cared for and special always asking about us and our renovation. We felt more like family than guest. Housekeeping was so friendly and hard working. They cleaned our room as requested and supplied us with clean linen and all the other extras offered. The restaurant in the hotel was incredible. The food was delicious and reasonably priced for a steakhouse. We ate there many times as there was a good variety of food...Italian food to the best hamburgers and fries. The breakfast buffet was very good and offered a nice selection of food. We ate there almost every morning. You will need to ask about the breakfast buffet when you make your reservations. We got to know the restaurant manager, Thomas, and all the servers by name. They made us feel very special. We will definitely go back to eat there. I have severe allergies and everyone worked to meet...The hotel owner, the manager and the desk staff were welcoming and wonderful from the first day we walked in. We were having our home remodeled and stayed at this hotel during renovations. We stayed forty four nights with them. They helped us every way they could to make our stay comfortable and enjoyable. We stayed in a beautiful suite. From making our extended stay easy with checking in and out to answering every question, they were always warm, professional and obliging to help us. They made us feel so cared for and special always asking about us and our renovation. We felt more like family than guest. Housekeeping was so friendly and hard working. They cleaned our room as requested and supplied us with clean linen and all the other extras offered. The restaurant in the hotel was incredible. The food was delicious and reasonably priced for a steakhouse. We ate there many times as there was a good variety of food...Italian food to the best hamburgers and fries. The breakfast buffet was very good and offered a nice selection of food. We ate there almost every morning. You will need to ask about the breakfast buffet when you make your reservations. We got to know the restaurant manager, Thomas, and all the servers by name. They made us feel very special. We will definitely go back to eat there. I have severe allergies and everyone worked to meet my special needs at the front desk, in housekeeping and in the restaurant. We would definitely stay there again and would encourage anyone to choose this hotel. We will miss all our sweet, Holiday Inn friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>The hotel owner, the manager and the desk staff were welcoming and wonderful from the first day we walked in. We were having our home remodeled and stayed at this hotel during renovations. We stayed forty four nights with them. They helped us every way they could to make our stay comfortable and enjoyable. We stayed in a beautiful suite. From making our extended stay easy with checking in and out to answering every question, they were always warm, professional and obliging to help us. They made us feel so cared for and special always asking about us and our renovation. We felt more like family than guest. Housekeeping was so friendly and hard working. They cleaned our room as requested and supplied us with clean linen and all the other extras offered. The restaurant in the hotel was incredible. The food was delicious and reasonably priced for a steakhouse. We ate there many times as there was a good variety of food...Italian food to the best hamburgers and fries. The breakfast buffet was very good and offered a nice selection of food. We ate there almost every morning. You will need to ask about the breakfast buffet when you make your reservations. We got to know the restaurant manager, Thomas, and all the servers by name. They made us feel very special. We will definitely go back to eat there. I have severe allergies and everyone worked to meet...The hotel owner, the manager and the desk staff were welcoming and wonderful from the first day we walked in. We were having our home remodeled and stayed at this hotel during renovations. We stayed forty four nights with them. They helped us every way they could to make our stay comfortable and enjoyable. We stayed in a beautiful suite. From making our extended stay easy with checking in and out to answering every question, they were always warm, professional and obliging to help us. They made us feel so cared for and special always asking about us and our renovation. We felt more like family than guest. Housekeeping was so friendly and hard working. They cleaned our room as requested and supplied us with clean linen and all the other extras offered. The restaurant in the hotel was incredible. The food was delicious and reasonably priced for a steakhouse. We ate there many times as there was a good variety of food...Italian food to the best hamburgers and fries. The breakfast buffet was very good and offered a nice selection of food. We ate there almost every morning. You will need to ask about the breakfast buffet when you make your reservations. We got to know the restaurant manager, Thomas, and all the servers by name. They made us feel very special. We will definitely go back to eat there. I have severe allergies and everyone worked to meet my special needs at the front desk, in housekeeping and in the restaurant. We would definitely stay there again and would encourage anyone to choose this hotel. We will miss all our sweet, Holiday Inn friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r461132314-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>461132314</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Brand new "Modern" Holiday Inn</t>
+  </si>
+  <si>
+    <t>Its been a while since I stayed at a Holiday Inn, but this new and very modern hotel really raised the bar for other Holiday Inn properties.  The lobby is quite open with water effects, plenty of parking and rooms are spacious an nicely appointed.  This hotel is very close to many businesses and literally in The Woodlands, Texas.  The biggest surprise was the hotel restaurant.  It was already highly scored, but it is the best "hotel" restaurant I have dined at.  Also, the prices are very reasonable for the food and spirits.  There is also a nice courtyard patio outside, but be careful as it is not official open until 6am, so easy to get locked out and no way to get back in unless someone unlocks the door. Downside - My room was 215.  First night I placed an order for breakfast in the morning on the door outside before the cut-off.  No one picked it up, but when I ordered in the morning it was only a 15 minutes wait for delivery.  So good.  Second issue was that my room was directly next to their A/C Heating Unit outside and when I ran the A/C in my room it was quite loud.  Third issue was that for some reason, I could only get lukewarm water for my shower.  When I checked out, I mentioned most of these issues to front desk and they were very concerned that...Its been a while since I stayed at a Holiday Inn, but this new and very modern hotel really raised the bar for other Holiday Inn properties.  The lobby is quite open with water effects, plenty of parking and rooms are spacious an nicely appointed.  This hotel is very close to many businesses and literally in The Woodlands, Texas.  The biggest surprise was the hotel restaurant.  It was already highly scored, but it is the best "hotel" restaurant I have dined at.  Also, the prices are very reasonable for the food and spirits.  There is also a nice courtyard patio outside, but be careful as it is not official open until 6am, so easy to get locked out and no way to get back in unless someone unlocks the door. Downside - My room was 215.  First night I placed an order for breakfast in the morning on the door outside before the cut-off.  No one picked it up, but when I ordered in the morning it was only a 15 minutes wait for delivery.  So good.  Second issue was that my room was directly next to their A/C Heating Unit outside and when I ran the A/C in my room it was quite loud.  Third issue was that for some reason, I could only get lukewarm water for my shower.  When I checked out, I mentioned most of these issues to front desk and they were very concerned that my experience was not exceptional, and made compensation for that through points.  I realize that if I notified them of these issues, they would have moved me to another room, but for me that it too much of a hassle, so I just stayed put for 5 days.MoreShow less</t>
+  </si>
+  <si>
+    <t>Its been a while since I stayed at a Holiday Inn, but this new and very modern hotel really raised the bar for other Holiday Inn properties.  The lobby is quite open with water effects, plenty of parking and rooms are spacious an nicely appointed.  This hotel is very close to many businesses and literally in The Woodlands, Texas.  The biggest surprise was the hotel restaurant.  It was already highly scored, but it is the best "hotel" restaurant I have dined at.  Also, the prices are very reasonable for the food and spirits.  There is also a nice courtyard patio outside, but be careful as it is not official open until 6am, so easy to get locked out and no way to get back in unless someone unlocks the door. Downside - My room was 215.  First night I placed an order for breakfast in the morning on the door outside before the cut-off.  No one picked it up, but when I ordered in the morning it was only a 15 minutes wait for delivery.  So good.  Second issue was that my room was directly next to their A/C Heating Unit outside and when I ran the A/C in my room it was quite loud.  Third issue was that for some reason, I could only get lukewarm water for my shower.  When I checked out, I mentioned most of these issues to front desk and they were very concerned that...Its been a while since I stayed at a Holiday Inn, but this new and very modern hotel really raised the bar for other Holiday Inn properties.  The lobby is quite open with water effects, plenty of parking and rooms are spacious an nicely appointed.  This hotel is very close to many businesses and literally in The Woodlands, Texas.  The biggest surprise was the hotel restaurant.  It was already highly scored, but it is the best "hotel" restaurant I have dined at.  Also, the prices are very reasonable for the food and spirits.  There is also a nice courtyard patio outside, but be careful as it is not official open until 6am, so easy to get locked out and no way to get back in unless someone unlocks the door. Downside - My room was 215.  First night I placed an order for breakfast in the morning on the door outside before the cut-off.  No one picked it up, but when I ordered in the morning it was only a 15 minutes wait for delivery.  So good.  Second issue was that my room was directly next to their A/C Heating Unit outside and when I ran the A/C in my room it was quite loud.  Third issue was that for some reason, I could only get lukewarm water for my shower.  When I checked out, I mentioned most of these issues to front desk and they were very concerned that my experience was not exceptional, and made compensation for that through points.  I realize that if I notified them of these issues, they would have moved me to another room, but for me that it too much of a hassle, so I just stayed put for 5 days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r450441205-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>450441205</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>New, and nice!  Great staff!</t>
+  </si>
+  <si>
+    <t>This is not your typical Holiday Inn.  The staff are very professional, and give the feeling of a 4 or 5 star hotel.  Not just the staff, but, also the hotel.  Decor is upscale, and the rooms are very modern, and comfortable.  Why would you pay 5 star prices when you can stay here for normal Holiday Inn prices?  Value is outstanding!</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r439132478-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>439132478</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>I don't usually stay at a Holiday Inn- but you should stay here</t>
+  </si>
+  <si>
+    <t>I don't usually stay at Holiday Inns but this Holiday Inn is brand new, modern and super clean! Highly recommend it.The week prior I was in Austin and stayed at the Omni Hotel for work.  It was 3 times the cost and not nearly as well kept or even as clean at this Holiday Inn. I know!  Amazing, right?You can't go wrong by staying here.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r435488825-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>435488825</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Good as it gets.</t>
+  </si>
+  <si>
+    <t>Previously visited some months back so decided to book again as I was in the are for three weeks or so. Great place and people. Excellent check in and service from the front desk. Accommodation is new, spotlessly clean and housekeeping do a great job and respect the do not disturb sign if you're looking for a lay in. Also go about their job quietly and effectively. The a/c is good and the beds awesome. Better than many Intercons. The pool is great and also has good access including a purpose built lift if you're not so mobile. Nice touch! Gym is small but well equipped. The residents laundry is also clean and new.
+One fantastic feature of this property in Johnny's. 
+Breakfast is a feast. Lots of choice and the service extremely good.
+Mark the barman is as as good as you'll find and as good an advert for a property you'll find. The team in the restaurant, Thomas, Sara, Zach, Trey (sorry if I missed anybody out) do everything to ensure your visit is fine. Finally the food. Fabulous. I think I've put on pounds. The bone in ribeye is a treat and chef knows how to cook. Perfectly seasoned and right temperature. Be warned though the portions are big even by Texas standards. If you can eat a starter and an entree you're a better person than me. Think I ate almost every dish on the menu...Previously visited some months back so decided to book again as I was in the are for three weeks or so. Great place and people. Excellent check in and service from the front desk. Accommodation is new, spotlessly clean and housekeeping do a great job and respect the do not disturb sign if you're looking for a lay in. Also go about their job quietly and effectively. The a/c is good and the beds awesome. Better than many Intercons. The pool is great and also has good access including a purpose built lift if you're not so mobile. Nice touch! Gym is small but well equipped. The residents laundry is also clean and new.One fantastic feature of this property in Johnny's. Breakfast is a feast. Lots of choice and the service extremely good.Mark the barman is as as good as you'll find and as good an advert for a property you'll find. The team in the restaurant, Thomas, Sara, Zach, Trey (sorry if I missed anybody out) do everything to ensure your visit is fine. Finally the food. Fabulous. I think I've put on pounds. The bone in ribeye is a treat and chef knows how to cook. Perfectly seasoned and right temperature. Be warned though the portions are big even by Texas standards. If you can eat a starter and an entree you're a better person than me. Think I ate almost every dish on the menu and some that aren't as they'll accommodate anything you fancy. I would particularly recommend the Sinatra, bone in ribeye, seafood pasta or Dubargo mignon. Prices are very reasonable too. Best Holiday Inn I've stayed in worldwide and I've stayed in a fewMoreShow less</t>
+  </si>
+  <si>
+    <t>Previously visited some months back so decided to book again as I was in the are for three weeks or so. Great place and people. Excellent check in and service from the front desk. Accommodation is new, spotlessly clean and housekeeping do a great job and respect the do not disturb sign if you're looking for a lay in. Also go about their job quietly and effectively. The a/c is good and the beds awesome. Better than many Intercons. The pool is great and also has good access including a purpose built lift if you're not so mobile. Nice touch! Gym is small but well equipped. The residents laundry is also clean and new.
+One fantastic feature of this property in Johnny's. 
+Breakfast is a feast. Lots of choice and the service extremely good.
+Mark the barman is as as good as you'll find and as good an advert for a property you'll find. The team in the restaurant, Thomas, Sara, Zach, Trey (sorry if I missed anybody out) do everything to ensure your visit is fine. Finally the food. Fabulous. I think I've put on pounds. The bone in ribeye is a treat and chef knows how to cook. Perfectly seasoned and right temperature. Be warned though the portions are big even by Texas standards. If you can eat a starter and an entree you're a better person than me. Think I ate almost every dish on the menu...Previously visited some months back so decided to book again as I was in the are for three weeks or so. Great place and people. Excellent check in and service from the front desk. Accommodation is new, spotlessly clean and housekeeping do a great job and respect the do not disturb sign if you're looking for a lay in. Also go about their job quietly and effectively. The a/c is good and the beds awesome. Better than many Intercons. The pool is great and also has good access including a purpose built lift if you're not so mobile. Nice touch! Gym is small but well equipped. The residents laundry is also clean and new.One fantastic feature of this property in Johnny's. Breakfast is a feast. Lots of choice and the service extremely good.Mark the barman is as as good as you'll find and as good an advert for a property you'll find. The team in the restaurant, Thomas, Sara, Zach, Trey (sorry if I missed anybody out) do everything to ensure your visit is fine. Finally the food. Fabulous. I think I've put on pounds. The bone in ribeye is a treat and chef knows how to cook. Perfectly seasoned and right temperature. Be warned though the portions are big even by Texas standards. If you can eat a starter and an entree you're a better person than me. Think I ate almost every dish on the menu and some that aren't as they'll accommodate anything you fancy. I would particularly recommend the Sinatra, bone in ribeye, seafood pasta or Dubargo mignon. Prices are very reasonable too. Best Holiday Inn I've stayed in worldwide and I've stayed in a fewMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r430966347-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>430966347</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Book now! Thank me later 😊</t>
+  </si>
+  <si>
+    <t>We always stay here when we come to The Woodlands! Modern decor through out the hotel. Awesome pool and outdoor seating. Breakfast bar is the tops! Rooms are spick and span. Walk in shower is a added bonus.  Thumbs ups Highly Recommend!!! Love it here.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>We always stay here when we come to The Woodlands! Modern decor through out the hotel. Awesome pool and outdoor seating. Breakfast bar is the tops! Rooms are spick and span. Walk in shower is a added bonus.  Thumbs ups Highly Recommend!!! Love it here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r425187015-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>425187015</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reconfortable </t>
+  </si>
+  <si>
+    <t>Good hotel to rest after one day of work, is quiet, clean, wonderful atention. All the staff are friendly. The food is good. The  restaurant is very well decorated.I could rest at ease. Definitely, I go back to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Good hotel to rest after one day of work, is quiet, clean, wonderful atention. All the staff are friendly. The food is good. The  restaurant is very well decorated.I could rest at ease. Definitely, I go back to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r419808955-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>419808955</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow!  Impressive! </t>
+  </si>
+  <si>
+    <t>Great stay! Extremely friendly staff.  New modern rooms and the best breakfast bar I've ever experienced! Very comfortable beds and big screen tv. I would definitely stay here again. The only suggestion I would have would be for stronger Wi-Fi in the rooms. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded September 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2016</t>
+  </si>
+  <si>
+    <t>Great stay! Extremely friendly staff.  New modern rooms and the best breakfast bar I've ever experienced! Very comfortable beds and big screen tv. I would definitely stay here again. The only suggestion I would have would be for stronger Wi-Fi in the rooms. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r400935596-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>400935596</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Can't Believe This Is a Holiday Inn!</t>
+  </si>
+  <si>
+    <t>First off, let me start off by saying I was absolutely blown away when I walked into the lobby. The hotel is difficult to find, and looks pretty standard from the inside. However, when you walk in, it honestly looks like a 5-star restaurant. The decor is so upscale, and the service is absolutely phenomenal! I stayed in a King Suite during my stay, and it was great! The beds are nice and firm with tons of pillows, and the rooms are very spacious. One negative was that I did have an issue with the water while I was there, when I went in for a shower the water was scalding hot and I was unable to lower it. However, the next day when I tried again, I didn't have any issues! Not too sure what had happened. The restaurant in the hotel, Johnny's, is a hidden gem in the Woodlands! The food is phenomenal and the servers are always right there to greet and serve with open arms. This hotel has quickly risen to be a favorite in the greater Houston area. Definitely check in out if you're ever here!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>First off, let me start off by saying I was absolutely blown away when I walked into the lobby. The hotel is difficult to find, and looks pretty standard from the inside. However, when you walk in, it honestly looks like a 5-star restaurant. The decor is so upscale, and the service is absolutely phenomenal! I stayed in a King Suite during my stay, and it was great! The beds are nice and firm with tons of pillows, and the rooms are very spacious. One negative was that I did have an issue with the water while I was there, when I went in for a shower the water was scalding hot and I was unable to lower it. However, the next day when I tried again, I didn't have any issues! Not too sure what had happened. The restaurant in the hotel, Johnny's, is a hidden gem in the Woodlands! The food is phenomenal and the servers are always right there to greet and serve with open arms. This hotel has quickly risen to be a favorite in the greater Houston area. Definitely check in out if you're ever here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r394698860-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>394698860</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>The Best</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is in a class by itself!  When you arrive the outside is very appealing and I arrived at night, well lit.  The reception was fast and efficient.  I travel quite a bit so I really appreciated the small things that made this hotel superior to others in this price range.  The elevator is large and roomy the carpet in the hallways has a great pad and it felt really nice going to the room.  The king room was very nice, clean and spacious. Small desk /work station and a small sofa.  The bathroom has a large shower, no tub, which is fine with me.  Breakfast, the best!  The dining area was very nice, clean and had booths which made it a little more private.  Even though it's a buffet there was a server to fill your coffee in a regular cup not styrofoam, and she let me know if I wanted something different from what was on the buffet to just let her know.  The buffet had the usual offerings but did include a nice assorted fresh fruit cup.  At the table there was cloth napkins, these small things make this hotel superior to the others.  I highly recommend this hotel to ant traveler.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is in a class by itself!  When you arrive the outside is very appealing and I arrived at night, well lit.  The reception was fast and efficient.  I travel quite a bit so I really appreciated the small things that made this hotel superior to others in this price range.  The elevator is large and roomy the carpet in the hallways has a great pad and it felt really nice going to the room.  The king room was very nice, clean and spacious. Small desk /work station and a small sofa.  The bathroom has a large shower, no tub, which is fine with me.  Breakfast, the best!  The dining area was very nice, clean and had booths which made it a little more private.  Even though it's a buffet there was a server to fill your coffee in a regular cup not styrofoam, and she let me know if I wanted something different from what was on the buffet to just let her know.  The buffet had the usual offerings but did include a nice assorted fresh fruit cup.  At the table there was cloth napkins, these small things make this hotel superior to the others.  I highly recommend this hotel to ant traveler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r393542969-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>393542969</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Stay here</t>
+  </si>
+  <si>
+    <t>I was traveling here with my son and disabled brother to visit relatives. This hotel was the nicest H I I have ever visited. Loved the room layout. Super comfy beds. Pool was large enough to do laps. There were pool toys for kids. The breakfast buffet was perfect. The dinner we had was super. Don't skip dessert. Margo, the waitress, and the staff were  super kind to my brother. He did not want to leave. Carlos the evening waiter was a delight. Emily the front desk person was very professional and kind. MoreShow less</t>
+  </si>
+  <si>
+    <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded July 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2016</t>
+  </si>
+  <si>
+    <t>I was traveling here with my son and disabled brother to visit relatives. This hotel was the nicest H I I have ever visited. Loved the room layout. Super comfy beds. Pool was large enough to do laps. There were pool toys for kids. The breakfast buffet was perfect. The dinner we had was super. Don't skip dessert. Margo, the waitress, and the staff were  super kind to my brother. He did not want to leave. Carlos the evening waiter was a delight. Emily the front desk person was very professional and kind. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r390259796-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>390259796</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Amazing!</t>
+  </si>
+  <si>
+    <t>This place is brand new, clean, the staff and owners are extremely friendly and helpful! Gary (one of the owners) is one of the nicest guys I have ever met! Will be using this hotel every time I go to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>This place is brand new, clean, the staff and owners are extremely friendly and helpful! Gary (one of the owners) is one of the nicest guys I have ever met! Will be using this hotel every time I go to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r390223224-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>390223224</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>Brand new beautiful hotel with easy access to 45. Stayed here for 3 nights and had a wonderful experience. Staff was friendly and prompt with any request and the beds are so comfy. Lots of amenities and would definitely stay here for future trips to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand new beautiful hotel with easy access to 45. Stayed here for 3 nights and had a wonderful experience. Staff was friendly and prompt with any request and the beds are so comfy. Lots of amenities and would definitely stay here for future trips to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r390222619-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>390222619</t>
+  </si>
+  <si>
+    <t>GREAT SERVICE!!</t>
+  </si>
+  <si>
+    <t>Stayed here July 4th weekend, this Hotel is beautiful and the staff is extremely polite. I will definitely be staying here more often. The steakhouse inside this hotel serves great food, by far one of the best steaks I've had in a long, long, long time. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here July 4th weekend, this Hotel is beautiful and the staff is extremely polite. I will definitely be staying here more often. The steakhouse inside this hotel serves great food, by far one of the best steaks I've had in a long, long, long time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r376824377-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>376824377</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Visit Johnny's Italian Steakhouse inside Holiday Inn</t>
+  </si>
+  <si>
+    <t>Wow what a surprise. Beautiful new hotel and restaurant in the Woodlands Texas area. Great rooms and friendly service at the hotel. Beautiful pool area! Probably one of the nicest Holiday Inns I have ever visited. The true gem is actually the restaurant located inside named Johnny's Italian Steakhouse. We were greeted by a professional and friendly hostess and were seated in a timely manner. Within moments our server Trey arrived and made us feel very welcome. We never really requested anything during our dinner because Trey anticipated our needs. The dinner was amazing! We started off with a nice bottle of wine and then we shared the little Italy appetizer and I ordered the Steak Deburgo with a spinach and goat cheese salad. I look forward to visiting again soon because there were other items on the menu I want to order.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Wow what a surprise. Beautiful new hotel and restaurant in the Woodlands Texas area. Great rooms and friendly service at the hotel. Beautiful pool area! Probably one of the nicest Holiday Inns I have ever visited. The true gem is actually the restaurant located inside named Johnny's Italian Steakhouse. We were greeted by a professional and friendly hostess and were seated in a timely manner. Within moments our server Trey arrived and made us feel very welcome. We never really requested anything during our dinner because Trey anticipated our needs. The dinner was amazing! We started off with a nice bottle of wine and then we shared the little Italy appetizer and I ordered the Steak Deburgo with a spinach and goat cheese salad. I look forward to visiting again soon because there were other items on the menu I want to order.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r370275465-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>370275465</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>By far the nicest Holiday Inn I have ever visited. I'm a Platinum member with IHG, so I have seen my share. The decor and the design is very modern and clean. The bar area, the pool, and the lobby really stand out. I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r369024202-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>369024202</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>Shining in Shenandoah, Texas !!!</t>
+  </si>
+  <si>
+    <t>Nestled in the city of Shenandoah, Texas, this Holiday Inn makes its grand appearance.  Its location is serene.  The staff is friendly and helpful.  There's a modern supper club in the hotel, Johnny's Italian Steakhouse.  I ordered the Veal Milanese coupled with the Crusted Goat Cheese Salad.  Every morsel was heavenly.  The hotel is immaculate.  Whenever you return to Shenandoah, Texas, you'll look for this Star !</t>
+  </si>
+  <si>
+    <t>April 2016</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1243,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1275,2096 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>105</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>124</v>
+      </c>
+      <c r="X13" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>124</v>
+      </c>
+      <c r="X14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>124</v>
+      </c>
+      <c r="X16" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>154</v>
+      </c>
+      <c r="X17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>154</v>
+      </c>
+      <c r="X18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>74</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>194</v>
+      </c>
+      <c r="X23" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" t="s">
+        <v>201</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>193</v>
+      </c>
+      <c r="O24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>202</v>
+      </c>
+      <c r="X24" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>210</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>211</v>
+      </c>
+      <c r="X25" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>215</v>
+      </c>
+      <c r="J26" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" t="s">
+        <v>218</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O26" t="s">
+        <v>105</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>211</v>
+      </c>
+      <c r="X26" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" t="s">
+        <v>223</v>
+      </c>
+      <c r="K27" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s">
+        <v>225</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>226</v>
+      </c>
+      <c r="X27" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>230</v>
+      </c>
+      <c r="J28" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" t="s">
+        <v>232</v>
+      </c>
+      <c r="L28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>234</v>
+      </c>
+      <c r="X28" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>238</v>
+      </c>
+      <c r="J29" t="s">
+        <v>239</v>
+      </c>
+      <c r="K29" t="s">
+        <v>240</v>
+      </c>
+      <c r="L29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>219</v>
+      </c>
+      <c r="O29" t="s">
+        <v>242</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>243</v>
+      </c>
+      <c r="X29" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>246</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>219</v>
+      </c>
+      <c r="O30" t="s">
+        <v>242</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>243</v>
+      </c>
+      <c r="X30" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>251</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>252</v>
+      </c>
+      <c r="J31" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" t="s">
+        <v>253</v>
+      </c>
+      <c r="L31" t="s">
+        <v>254</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>219</v>
+      </c>
+      <c r="O31" t="s">
+        <v>242</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>243</v>
+      </c>
+      <c r="X31" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" t="s">
+        <v>259</v>
+      </c>
+      <c r="L32" t="s">
+        <v>260</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>261</v>
+      </c>
+      <c r="O32" t="s">
+        <v>105</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>262</v>
+      </c>
+      <c r="X32" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>266</v>
+      </c>
+      <c r="J33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K33" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s">
+        <v>269</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>261</v>
+      </c>
+      <c r="O33" t="s">
+        <v>74</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>271</v>
+      </c>
+      <c r="J34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K34" t="s">
+        <v>273</v>
+      </c>
+      <c r="L34" t="s">
+        <v>274</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>275</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_349.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_349.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="416">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,27 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r599911984-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>1009393</t>
+  </si>
+  <si>
+    <t>8553268</t>
+  </si>
+  <si>
+    <t>599911984</t>
+  </si>
+  <si>
+    <t>July 26, 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r598646821-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
-    <t>1009393</t>
-  </si>
-  <si>
-    <t>8553268</t>
-  </si>
-  <si>
     <t>598646821</t>
   </si>
   <si>
@@ -222,6 +231,75 @@
     <t>Chose this property for its proximity to Texas Children’s Hospital. The property is newer and has an excellent on property restaurant. I was not impressed with the fitness room, actually it was the worst equipped one I’ve seen in a while. For a property this new it was an unpleasant surprise.  The room was clean with a large tv. Unfortunately the remote did not work so I was unable to enjoy it.  The rooms have showers only, no bathtubs. I prefer relaxing in a bathtub but IHG apparently does not feel I need the option taking a bath. They have a few ADA rooms with tubs but I don’t feel good occupying an ADA room when someone who really requires it may be denied. All in all this is a nice property. I doubt I return but that is due to my personal preference of a bathtub and a well equipped fitness center. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r579875286-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>579875286</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>Best Holiday Inn we’ve stayed at!!!</t>
+  </si>
+  <si>
+    <t>When we first arrived I was a little worried, the lady at the front desk, name tag said she was a manager, was not friendly at all. But that concern was quickly squashed. We got up to our room and the key wouldn’t work. With all our luggage in tow, the front desk offered to bring us another one. Once we were in our room we were thrilled! Very clean, cool, spacious room with just about everything you might need. The bed and pillows were crisp and comfortable. The lay out of the room was perfect for a family. The hotel is located close to a mall, other shopping, HEB and the Cynthia Woods Pavilion. The restaurant and bar downstairs is fantastic. Highly recommend this inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>When we first arrived I was a little worried, the lady at the front desk, name tag said she was a manager, was not friendly at all. But that concern was quickly squashed. We got up to our room and the key wouldn’t work. With all our luggage in tow, the front desk offered to bring us another one. Once we were in our room we were thrilled! Very clean, cool, spacious room with just about everything you might need. The bed and pillows were crisp and comfortable. The lay out of the room was perfect for a family. The hotel is located close to a mall, other shopping, HEB and the Cynthia Woods Pavilion. The restaurant and bar downstairs is fantastic. Highly recommend this inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r578557158-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>578557158</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Basis of review: Lived here M-F for about 8 months.
+I commuted to work in The Woodlands from Denver for about 8 months. I stayed here almost every trip (they were sold out once on a last minute booking). Dollar-for-dollar, this place is maybe the best value I've ever had for a hotel. The staff and the restaurant are excellent.
+Rooms: Both regular and suites are good sized. Suite has a separate bedroom (as expected) and a large living area and small wet bar area and refrigerator. Bathrooms are good size and you don't feel cramped in there. This building is only a couple years old so this is to be expected with a new build. Only issue I ever had was many of the USB charging ports in the wall were broken or too loose to hold my cord. Wifi was never a problem anywhere in the building. Room was always clean.
+Building: A couple issues with the building itself. 1) Elevators. These have had a LOT of issues over time I was there. First, they are really slow. Second, Rarely did both work. This is not the hotel's fault, it was a vendor issue. I still don't know if this has been fully resolved. One time only the service elevator worked. That was an interesting few days.  2) There are no interior-accessible stairways. The stairs only exit the building through exit doors to the exterior instead of into...Basis of review: Lived here M-F for about 8 months.I commuted to work in The Woodlands from Denver for about 8 months. I stayed here almost every trip (they were sold out once on a last minute booking). Dollar-for-dollar, this place is maybe the best value I've ever had for a hotel. The staff and the restaurant are excellent.Rooms: Both regular and suites are good sized. Suite has a separate bedroom (as expected) and a large living area and small wet bar area and refrigerator. Bathrooms are good size and you don't feel cramped in there. This building is only a couple years old so this is to be expected with a new build. Only issue I ever had was many of the USB charging ports in the wall were broken or too loose to hold my cord. Wifi was never a problem anywhere in the building. Room was always clean.Building: A couple issues with the building itself. 1) Elevators. These have had a LOT of issues over time I was there. First, they are really slow. Second, Rarely did both work. This is not the hotel's fault, it was a vendor issue. I still don't know if this has been fully resolved. One time only the service elevator worked. That was an interesting few days.  2) There are no interior-accessible stairways. The stairs only exit the building through exit doors to the exterior instead of into the interior hallways and the are not accessible from the exterior to come back in. When elevators are not working properly, or you just like to take the stairs, this is an annoyance. Nice pool and patio area, small gym (that I didn't use nearly enough). Laundry on site.Staff: What can I say, they are awesome. Lisa's entire crew is attentive and helpful. Lisa is a rock star herself. Eissa at the bar I now consider a friend. Clay, Jacob, and the rest of the team in the restaurant are great and continually trying to improve.Food: You won't get better unless you are staying 5-star, and even then, maybe not. Johnny's Italian Steakhouse is the house restaurant. I ate here 3-4 nights per week. Always good and when I got tired of the menu, I just let them come up with something for me. Good happy hour food also! Also, if you enjoy cocktails, Eissa is one of the best! Start with an Old Fashioned and then let him take over. You won't be sorry.Overall: Obviously, I am a fan. The people here became family to me. Lots of regular guest that stay 30+ minutes away from where they need to be just because this place is so well run. And that is saying something when you have to deal with Houston traffic. All in all, 100% worth your money to stay here. See you at the bar.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Basis of review: Lived here M-F for about 8 months.
+I commuted to work in The Woodlands from Denver for about 8 months. I stayed here almost every trip (they were sold out once on a last minute booking). Dollar-for-dollar, this place is maybe the best value I've ever had for a hotel. The staff and the restaurant are excellent.
+Rooms: Both regular and suites are good sized. Suite has a separate bedroom (as expected) and a large living area and small wet bar area and refrigerator. Bathrooms are good size and you don't feel cramped in there. This building is only a couple years old so this is to be expected with a new build. Only issue I ever had was many of the USB charging ports in the wall were broken or too loose to hold my cord. Wifi was never a problem anywhere in the building. Room was always clean.
+Building: A couple issues with the building itself. 1) Elevators. These have had a LOT of issues over time I was there. First, they are really slow. Second, Rarely did both work. This is not the hotel's fault, it was a vendor issue. I still don't know if this has been fully resolved. One time only the service elevator worked. That was an interesting few days.  2) There are no interior-accessible stairways. The stairs only exit the building through exit doors to the exterior instead of into...Basis of review: Lived here M-F for about 8 months.I commuted to work in The Woodlands from Denver for about 8 months. I stayed here almost every trip (they were sold out once on a last minute booking). Dollar-for-dollar, this place is maybe the best value I've ever had for a hotel. The staff and the restaurant are excellent.Rooms: Both regular and suites are good sized. Suite has a separate bedroom (as expected) and a large living area and small wet bar area and refrigerator. Bathrooms are good size and you don't feel cramped in there. This building is only a couple years old so this is to be expected with a new build. Only issue I ever had was many of the USB charging ports in the wall were broken or too loose to hold my cord. Wifi was never a problem anywhere in the building. Room was always clean.Building: A couple issues with the building itself. 1) Elevators. These have had a LOT of issues over time I was there. First, they are really slow. Second, Rarely did both work. This is not the hotel's fault, it was a vendor issue. I still don't know if this has been fully resolved. One time only the service elevator worked. That was an interesting few days.  2) There are no interior-accessible stairways. The stairs only exit the building through exit doors to the exterior instead of into the interior hallways and the are not accessible from the exterior to come back in. When elevators are not working properly, or you just like to take the stairs, this is an annoyance. Nice pool and patio area, small gym (that I didn't use nearly enough). Laundry on site.Staff: What can I say, they are awesome. Lisa's entire crew is attentive and helpful. Lisa is a rock star herself. Eissa at the bar I now consider a friend. Clay, Jacob, and the rest of the team in the restaurant are great and continually trying to improve.Food: You won't get better unless you are staying 5-star, and even then, maybe not. Johnny's Italian Steakhouse is the house restaurant. I ate here 3-4 nights per week. Always good and when I got tired of the menu, I just let them come up with something for me. Good happy hour food also! Also, if you enjoy cocktails, Eissa is one of the best! Start with an Old Fashioned and then let him take over. You won't be sorry.Overall: Obviously, I am a fan. The people here became family to me. Lots of regular guest that stay 30+ minutes away from where they need to be just because this place is so well run. And that is saying something when you have to deal with Houston traffic. All in all, 100% worth your money to stay here. See you at the bar.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r578377283-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>578377283</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>Excellent mid range hotel with nice location with access to the Woodlands</t>
+  </si>
+  <si>
+    <t>We stayed 4 nights while in town for the Ironman Texas event in the Woodlands. It was a quick 5 minute drive to the Woodlands and to many restaurants and shops. There was ample parking.The hotel was clean and the room (we stayed in a suite) was well laid out with a private bedroom in the back. The room had a fridge and microwave and plenty of space. The only drawbacks were the sliding door to the bathroom which doesn't give complete privacy and also no safe in the room. These were minor and everything else was great.Highly recommend.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r571566325-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -237,12 +315,6 @@
     <t xml:space="preserve">Excellent friendly service, they always make you feel welcome.  I am an ihg platinum member so spend a lot of time in Holiday Inn s .  This is easily one of the best, clean,  tidy. Plus the restaurant Johnny’s is excellent . </t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r565859045-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -258,9 +330,6 @@
     <t>I stayed here overnight prior to an early flight out of IAH, and found it to be a very nice and very clean hotel with friendly staff. The room was very large and well appointed. I will definitely stay here again. It’s a straight shot down the Hardy toll road to IAH.</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r564895231-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -276,6 +345,51 @@
     <t>Stayed for one night after my daughter's dance competition nearby. Location is great; very close to I-45 and many restaurants/shopping very close. Hotel is new and clean, room was great. The breakfast buffet is decent. It is much better than other hotels that only offer continental breakfast because it has hot food (eggs, sausage, biscuits/gravy, potatoes); however, I have seen better selection at other hotels. Also, there were a few cereals out, but again, selection was limited. Overall, a great experience and would recommend to anyone staying in the area.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r557972845-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>557972845</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>Great for business and convention</t>
+  </si>
+  <si>
+    <t>This is a new class of Holiday Inn. Very comfortable. The staff was super friendly and VERY helpful. We came one week for business and to host some customers...ended up coming back for a second week! I would highly recommend this property!</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r539882192-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>539882192</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Poorly understaffed!  Had to switch rooms at 1 AM in the morning. Not happy!</t>
+  </si>
+  <si>
+    <t>Expected a nice experience based on reviews.  I stayed here September 22 - 24, 2017.  Upon arrival there was one person working the front desk and so it took a while to check in (30 minutes).  2 people in front of us addressed billing issues.  Needless to say I was glad that we had printed out our reservation because we were quoted incorrect rates.  Which once she saw our reservation she corrected.  We had a very tight schedule and got up to the room and unpacked.  Proceeded to take a shower only to find out there was no hot water.  With no time to change rooms we took the freezing shower and got on our way to our function.  On the way back in at 1 AM in the morning we were told we could change rooms and that our room should have never been rented because it had an ongoing hot water problem.  This really sucked because we were so tired.  The move was a complete pain in the butt.  One of the elevators is out and apparently has been out for months.  The one elevator that works stops on every floor for no reason at all.  Saturday morning we went downstairs to have breakfast and it was a circus show.  They had one person manning the buffet area, tables, and checkout.   Dirty dishes were on every table it was a mess.  Later we heard that they had to...Expected a nice experience based on reviews.  I stayed here September 22 - 24, 2017.  Upon arrival there was one person working the front desk and so it took a while to check in (30 minutes).  2 people in front of us addressed billing issues.  Needless to say I was glad that we had printed out our reservation because we were quoted incorrect rates.  Which once she saw our reservation she corrected.  We had a very tight schedule and got up to the room and unpacked.  Proceeded to take a shower only to find out there was no hot water.  With no time to change rooms we took the freezing shower and got on our way to our function.  On the way back in at 1 AM in the morning we were told we could change rooms and that our room should have never been rented because it had an ongoing hot water problem.  This really sucked because we were so tired.  The move was a complete pain in the butt.  One of the elevators is out and apparently has been out for months.  The one elevator that works stops on every floor for no reason at all.  Saturday morning we went downstairs to have breakfast and it was a circus show.  They had one person manning the buffet area, tables, and checkout.   Dirty dishes were on every table it was a mess.  Later we heard that they had to fire someone and another person did not show up.  Sunday at check-out we noticed we had already been charged even before we checked out.  And of course we were over charged.  This we saw was very common.   After all the problems we expected at least an apology from the manager but as of today (2 weeks later) we have still not received a call or email.  Typically, I would give a business a second chance.  But not this one.  Way to many problems for a newer hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded November 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2017</t>
+  </si>
+  <si>
+    <t>Expected a nice experience based on reviews.  I stayed here September 22 - 24, 2017.  Upon arrival there was one person working the front desk and so it took a while to check in (30 minutes).  2 people in front of us addressed billing issues.  Needless to say I was glad that we had printed out our reservation because we were quoted incorrect rates.  Which once she saw our reservation she corrected.  We had a very tight schedule and got up to the room and unpacked.  Proceeded to take a shower only to find out there was no hot water.  With no time to change rooms we took the freezing shower and got on our way to our function.  On the way back in at 1 AM in the morning we were told we could change rooms and that our room should have never been rented because it had an ongoing hot water problem.  This really sucked because we were so tired.  The move was a complete pain in the butt.  One of the elevators is out and apparently has been out for months.  The one elevator that works stops on every floor for no reason at all.  Saturday morning we went downstairs to have breakfast and it was a circus show.  They had one person manning the buffet area, tables, and checkout.   Dirty dishes were on every table it was a mess.  Later we heard that they had to...Expected a nice experience based on reviews.  I stayed here September 22 - 24, 2017.  Upon arrival there was one person working the front desk and so it took a while to check in (30 minutes).  2 people in front of us addressed billing issues.  Needless to say I was glad that we had printed out our reservation because we were quoted incorrect rates.  Which once she saw our reservation she corrected.  We had a very tight schedule and got up to the room and unpacked.  Proceeded to take a shower only to find out there was no hot water.  With no time to change rooms we took the freezing shower and got on our way to our function.  On the way back in at 1 AM in the morning we were told we could change rooms and that our room should have never been rented because it had an ongoing hot water problem.  This really sucked because we were so tired.  The move was a complete pain in the butt.  One of the elevators is out and apparently has been out for months.  The one elevator that works stops on every floor for no reason at all.  Saturday morning we went downstairs to have breakfast and it was a circus show.  They had one person manning the buffet area, tables, and checkout.   Dirty dishes were on every table it was a mess.  Later we heard that they had to fire someone and another person did not show up.  Sunday at check-out we noticed we had already been charged even before we checked out.  And of course we were over charged.  This we saw was very common.   After all the problems we expected at least an apology from the manager but as of today (2 weeks later) we have still not received a call or email.  Typically, I would give a business a second chance.  But not this one.  Way to many problems for a newer hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r536503943-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -333,12 +447,45 @@
     <t>Even though we live in Houston we like to stay somewhere close to the Texas Renaissance Festival when we visit.  We found this hotel in the Woodlands and thought to give it a try.  The hotel staff were very friendly and helpful.  The room was clean and had a modern style to it.  The breakfast buffet was good.  The pool was very large and had a nice spa.  The beds were very comfortable with plenty of pillows.My only complaint was the slow elevator and the lack of a stair access.  The hotel had two elevators but one was out of order so everyone relied on one elevator.  The elevator itself was slow moving.  We had a room on the second floor and I don't mind taking the stairs but the stairs in this hotel were one way (out the building).  You could go down the stairs and end up outside the building but you couldn't go upstairs to your floor (the doors had no handles from the stairwell).MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Even though we live in Houston we like to stay somewhere close to the Texas Renaissance Festival when we visit.  We found this hotel in the Woodlands and thought to give it a try.  The hotel staff were very friendly and helpful.  The room was clean and had a modern style to it.  The breakfast buffet was good.  The pool was very large and had a nice spa.  The beds were very comfortable with plenty of pillows.My only complaint was the slow elevator and the lack of a stair access.  The hotel had two elevators but one was out of order so everyone relied on one elevator.  The elevator itself was slow moving.  We had a room on the second floor and I don't mind taking the stairs but the stairs in this hotel were one way (out the building).  You could go down the stairs and end up outside the building but you couldn't go upstairs to your floor (the doors had no handles from the stairwell).More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r517924946-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>517924946</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Great hospitality</t>
+  </si>
+  <si>
+    <t>This is a reasonably new hotel. The rooms are clean and comfortable. The staff were friendly and quite efficient. Food was good and service was acceptable. The hotel is well located close to the motorway.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r510761347-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>510761347</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Simply amazing...</t>
+  </si>
+  <si>
+    <t>Super clean hotelSpacious roomsAmazing dine-in restaurant which serves customized food per your needGreat conference room facility Only missing element is breakfast options...Must stay if you are traveling to this Texas town</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r510204669-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -354,9 +501,6 @@
     <t>when you're traveling in The Woodlands area of Houston and need a place to stay this hotel is great. New decor and room appointments are very nice. Johnny's Italian Steakhouse is the restaurant in the hotel. My room included breakfast for 2 and made to order - not some lousy buffet. The drinks and food were awesome and very reasonably priced. Great value, attentive welcoming staff and nice property all the way around.</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r510127034-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -369,9 +513,6 @@
     <t>My husband and I just wanted to take a quick getaway for our anniversary.  This was a convenient hotel to all of the sights and activities in The Woodlands.  It is tucked away in a quiet location.  The hotel appears new and the pool area would have been VERY relaxing if it hadn't started to rain on us.  But our room was beautifully decorated with a nice forest view.  The only complaint I had was a loose toilet seat.  Other than that the bathroom was spacious and the modern décor of our room and the hotel made it an overall great experience.  The gentleman at the front desk was super friendly and helpful!MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>My husband and I just wanted to take a quick getaway for our anniversary.  This was a convenient hotel to all of the sights and activities in The Woodlands.  It is tucked away in a quiet location.  The hotel appears new and the pool area would have been VERY relaxing if it hadn't started to rain on us.  But our room was beautifully decorated with a nice forest view.  The only complaint I had was a loose toilet seat.  Other than that the bathroom was spacious and the modern décor of our room and the hotel made it an overall great experience.  The gentleman at the front desk was super friendly and helpful!More</t>
   </si>
   <si>
@@ -399,15 +540,48 @@
     <t>I'm an IHG member and stay at holiday inns every where and all the time. This is the best by far! It's clean and beautiful and smells nice. The staff is extra attentive. Johnny's Italian steak house and grill has the most amazing Sunday brunch. I was expecting typical hotel food, but there was nothing typical. A huge selection of breakfast and lunch. I really can't say enough about it. The location is great too. If I'm in the area again I will stay here again no doubt. Perfect!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r507035254-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>507035254</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Nice new clean ...</t>
+  </si>
+  <si>
+    <t>The hotel was really nice and clean. Staff was very friendly and helpful. They had a shuttle to Cynthia Woods and a ticket for lift to ride back. Breakfast was great overall greta stay. They had live music setting up. The bar was well stocked with good scotch..MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was really nice and clean. Staff was very friendly and helpful. They had a shuttle to Cynthia Woods and a ticket for lift to ride back. Breakfast was great overall greta stay. They had live music setting up. The bar was well stocked with good scotch..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r506205306-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>506205306</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Last minute..everything great.</t>
+  </si>
+  <si>
+    <t>Great hotel..convenient location...front desk was  super..Ethan and Luke were the best.  Fluffy pillows, clean big room with fridge and coffee maker...pool and giant hot tub the best.  Breakfast for small cost. Couldn't add photo in the review..MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel..convenient location...front desk was  super..Ethan and Luke were the best.  Fluffy pillows, clean big room with fridge and coffee maker...pool and giant hot tub the best.  Breakfast for small cost. Couldn't add photo in the review..More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r506140794-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
     <t>506140794</t>
   </si>
   <si>
-    <t>07/27/2017</t>
-  </si>
-  <si>
     <t>Best Holiday Inn</t>
   </si>
   <si>
@@ -462,6 +636,54 @@
     <t>Came to Holiday Inn in Shenandoah for an event that was being held at this hotel. Very modern and nice hotel, not sure how old it is, but appears from every aspect as being new. The lobby is beautiful, the Restaurant and bar area is very nice. Buffet Breakfast every morning. There were plenty of choices to make everyone happy, every day several of them changed for variety. Did not try dinner there, but other that did eat there said the Steaks and Italian fare was awesome. Room was very modern, huge flatscreen tv, microwave and refrigerator, nice desk area and free WiFi, bed was comfy with nice choice of pillows. Did not visit the pool area, but it looked clean and inviting. Parking lot and exterior was clean and taken care of. This hotel is about 1 block off of the freeway, but very accessible. Being a block off there is no freeway noise. The only downside was that only one elevator was working for almost the entire week we were there. There were long waits to get an elevator up or down due to the event being held. One lady had mentioned they had been here for 2 weeks and it had been broken the whole time they had been here. The elevator company did finally show up late in the week and it was operational for the duration of our stay which helped with the long waits....Came to Holiday Inn in Shenandoah for an event that was being held at this hotel. Very modern and nice hotel, not sure how old it is, but appears from every aspect as being new. The lobby is beautiful, the Restaurant and bar area is very nice. Buffet Breakfast every morning. There were plenty of choices to make everyone happy, every day several of them changed for variety. Did not try dinner there, but other that did eat there said the Steaks and Italian fare was awesome. Room was very modern, huge flatscreen tv, microwave and refrigerator, nice desk area and free WiFi, bed was comfy with nice choice of pillows. Did not visit the pool area, but it looked clean and inviting. Parking lot and exterior was clean and taken care of. This hotel is about 1 block off of the freeway, but very accessible. Being a block off there is no freeway noise. The only downside was that only one elevator was working for almost the entire week we were there. There were long waits to get an elevator up or down due to the event being held. One lady had mentioned they had been here for 2 weeks and it had been broken the whole time they had been here. The elevator company did finally show up late in the week and it was operational for the duration of our stay which helped with the long waits. All in all I would come back in a heartbeat. All of the desk staff would greet you when you were coming or going. Every encounter with every employee was a good one, friendly and cordial.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r476256687-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>476256687</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Fantastic stay - Professional staff</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here April 11th, 12th &amp; 13th. We were in town for my wife's brother's funeral. We arrived early around 10:30am and our room wasn't ready so the Desk Clerk (Chi-Kerian) was amazing. She was very sympathetic and upgraded us to a King Suite. We talked to her for a while before going to our room. Every time we left or returned she was always smiling and greeted us. Our room was fantastic. It was ver clean, smelled fresh, spacious, quiet, the temperature in the room was comfortable along with the bed &amp; pillows were awesome.The complimentary breakfast was great. We met Lisa the Hotel Manager during breakfast and she welcomed us and wanted to know how our stay was and if we needed anything not to hesitate to call her. But never needed to call on her because everything exceeded our expectationsWhen we checked out on Thursday, April 13th, Chi-Kerian thank us for staying at this property and invited us back if we were ever back in the area. She came from around the desk / counter and gave my wife and I hug. She was so sweet and made our stay very memorable especially under the circumstances.I would highly recommend this hotel and will definitely stay here again if any where around this area.Thanks to the staff and especially Chi-KerianMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here April 11th, 12th &amp; 13th. We were in town for my wife's brother's funeral. We arrived early around 10:30am and our room wasn't ready so the Desk Clerk (Chi-Kerian) was amazing. She was very sympathetic and upgraded us to a King Suite. We talked to her for a while before going to our room. Every time we left or returned she was always smiling and greeted us. Our room was fantastic. It was ver clean, smelled fresh, spacious, quiet, the temperature in the room was comfortable along with the bed &amp; pillows were awesome.The complimentary breakfast was great. We met Lisa the Hotel Manager during breakfast and she welcomed us and wanted to know how our stay was and if we needed anything not to hesitate to call her. But never needed to call on her because everything exceeded our expectationsWhen we checked out on Thursday, April 13th, Chi-Kerian thank us for staying at this property and invited us back if we were ever back in the area. She came from around the desk / counter and gave my wife and I hug. She was so sweet and made our stay very memorable especially under the circumstances.I would highly recommend this hotel and will definitely stay here again if any where around this area.Thanks to the staff and especially Chi-KerianMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r465179082-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>465179082</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>Short stay but a beautiful property</t>
+  </si>
+  <si>
+    <t>Stayed one night for a training that was located in the meeting facilities of the property.  Check in was a breeze and they had all the needed items (keys/wifi) access code ready to go. The room itself was large, comfortable, and clean.  The bathroom shower was large but as a girl a stand up shower with no foot prop can be a bit of a challenge.  The seating area was almost like a banquet in the corner which was a great use of space.  The bed was comfortable and the room was quiet...the fitted sheet was quite pilly but the sheets were clean.  Check out was fast as well, staff was friendly and efficient. The hotel itself was right off I-45 which was nice and near the Woodlands Mall for a ton of dining options. If you need to be in the northern Houston Suburbs is a great choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Stayed one night for a training that was located in the meeting facilities of the property.  Check in was a breeze and they had all the needed items (keys/wifi) access code ready to go. The room itself was large, comfortable, and clean.  The bathroom shower was large but as a girl a stand up shower with no foot prop can be a bit of a challenge.  The seating area was almost like a banquet in the corner which was a great use of space.  The bed was comfortable and the room was quiet...the fitted sheet was quite pilly but the sheets were clean.  Check out was fast as well, staff was friendly and efficient. The hotel itself was right off I-45 which was nice and near the Woodlands Mall for a ton of dining options. If you need to be in the northern Houston Suburbs is a great choice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r463889239-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -480,12 +702,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded March 18, 2017</t>
-  </si>
-  <si>
-    <t>Responded March 18, 2017</t>
-  </si>
-  <si>
     <t>Our Company held 2 days of meetings here and absolutely nothing negative about the entire experience could be said.  I was responsible for booking a venue and this beautiful new Holiday Inn was perfect!  Food requirewas outstanding and our attendees were more than pleasantly surprised.  I did not stay at the hotel but those who did said their accommodations were excellent!  The staff was very easy to work with and met every need.  Audio visual requirements were a non issue.  Highly recommend!  Thanks Sharon and Dani!More</t>
   </si>
   <si>
@@ -504,9 +720,6 @@
     <t>The hotel owner, the manager and the desk staff were welcoming and wonderful from the first day we walked in. We were having our home remodeled and stayed at this hotel during renovations. We stayed forty four nights with them. They helped us every way they could to make our stay comfortable and enjoyable. We stayed in a beautiful suite. From making our extended stay easy with checking in and out to answering every question, they were always warm, professional and obliging to help us. They made us feel so cared for and special always asking about us and our renovation. We felt more like family than guest. Housekeeping was so friendly and hard working. They cleaned our room as requested and supplied us with clean linen and all the other extras offered. The restaurant in the hotel was incredible. The food was delicious and reasonably priced for a steakhouse. We ate there many times as there was a good variety of food...Italian food to the best hamburgers and fries. The breakfast buffet was very good and offered a nice selection of food. We ate there almost every morning. You will need to ask about the breakfast buffet when you make your reservations. We got to know the restaurant manager, Thomas, and all the servers by name. They made us feel very special. We will definitely go back to eat there. I have severe allergies and everyone worked to meet...The hotel owner, the manager and the desk staff were welcoming and wonderful from the first day we walked in. We were having our home remodeled and stayed at this hotel during renovations. We stayed forty four nights with them. They helped us every way they could to make our stay comfortable and enjoyable. We stayed in a beautiful suite. From making our extended stay easy with checking in and out to answering every question, they were always warm, professional and obliging to help us. They made us feel so cared for and special always asking about us and our renovation. We felt more like family than guest. Housekeeping was so friendly and hard working. They cleaned our room as requested and supplied us with clean linen and all the other extras offered. The restaurant in the hotel was incredible. The food was delicious and reasonably priced for a steakhouse. We ate there many times as there was a good variety of food...Italian food to the best hamburgers and fries. The breakfast buffet was very good and offered a nice selection of food. We ate there almost every morning. You will need to ask about the breakfast buffet when you make your reservations. We got to know the restaurant manager, Thomas, and all the servers by name. They made us feel very special. We will definitely go back to eat there. I have severe allergies and everyone worked to meet my special needs at the front desk, in housekeeping and in the restaurant. We would definitely stay there again and would encourage anyone to choose this hotel. We will miss all our sweet, Holiday Inn friends.MoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t>The hotel owner, the manager and the desk staff were welcoming and wonderful from the first day we walked in. We were having our home remodeled and stayed at this hotel during renovations. We stayed forty four nights with them. They helped us every way they could to make our stay comfortable and enjoyable. We stayed in a beautiful suite. From making our extended stay easy with checking in and out to answering every question, they were always warm, professional and obliging to help us. They made us feel so cared for and special always asking about us and our renovation. We felt more like family than guest. Housekeeping was so friendly and hard working. They cleaned our room as requested and supplied us with clean linen and all the other extras offered. The restaurant in the hotel was incredible. The food was delicious and reasonably priced for a steakhouse. We ate there many times as there was a good variety of food...Italian food to the best hamburgers and fries. The breakfast buffet was very good and offered a nice selection of food. We ate there almost every morning. You will need to ask about the breakfast buffet when you make your reservations. We got to know the restaurant manager, Thomas, and all the servers by name. They made us feel very special. We will definitely go back to eat there. I have severe allergies and everyone worked to meet...The hotel owner, the manager and the desk staff were welcoming and wonderful from the first day we walked in. We were having our home remodeled and stayed at this hotel during renovations. We stayed forty four nights with them. They helped us every way they could to make our stay comfortable and enjoyable. We stayed in a beautiful suite. From making our extended stay easy with checking in and out to answering every question, they were always warm, professional and obliging to help us. They made us feel so cared for and special always asking about us and our renovation. We felt more like family than guest. Housekeeping was so friendly and hard working. They cleaned our room as requested and supplied us with clean linen and all the other extras offered. The restaurant in the hotel was incredible. The food was delicious and reasonably priced for a steakhouse. We ate there many times as there was a good variety of food...Italian food to the best hamburgers and fries. The breakfast buffet was very good and offered a nice selection of food. We ate there almost every morning. You will need to ask about the breakfast buffet when you make your reservations. We got to know the restaurant manager, Thomas, and all the servers by name. They made us feel very special. We will definitely go back to eat there. I have severe allergies and everyone worked to meet my special needs at the front desk, in housekeeping and in the restaurant. We would definitely stay there again and would encourage anyone to choose this hotel. We will miss all our sweet, Holiday Inn friends.More</t>
   </si>
   <si>
@@ -526,6 +739,57 @@
   </si>
   <si>
     <t>Its been a while since I stayed at a Holiday Inn, but this new and very modern hotel really raised the bar for other Holiday Inn properties.  The lobby is quite open with water effects, plenty of parking and rooms are spacious an nicely appointed.  This hotel is very close to many businesses and literally in The Woodlands, Texas.  The biggest surprise was the hotel restaurant.  It was already highly scored, but it is the best "hotel" restaurant I have dined at.  Also, the prices are very reasonable for the food and spirits.  There is also a nice courtyard patio outside, but be careful as it is not official open until 6am, so easy to get locked out and no way to get back in unless someone unlocks the door. Downside - My room was 215.  First night I placed an order for breakfast in the morning on the door outside before the cut-off.  No one picked it up, but when I ordered in the morning it was only a 15 minutes wait for delivery.  So good.  Second issue was that my room was directly next to their A/C Heating Unit outside and when I ran the A/C in my room it was quite loud.  Third issue was that for some reason, I could only get lukewarm water for my shower.  When I checked out, I mentioned most of these issues to front desk and they were very concerned that...Its been a while since I stayed at a Holiday Inn, but this new and very modern hotel really raised the bar for other Holiday Inn properties.  The lobby is quite open with water effects, plenty of parking and rooms are spacious an nicely appointed.  This hotel is very close to many businesses and literally in The Woodlands, Texas.  The biggest surprise was the hotel restaurant.  It was already highly scored, but it is the best "hotel" restaurant I have dined at.  Also, the prices are very reasonable for the food and spirits.  There is also a nice courtyard patio outside, but be careful as it is not official open until 6am, so easy to get locked out and no way to get back in unless someone unlocks the door. Downside - My room was 215.  First night I placed an order for breakfast in the morning on the door outside before the cut-off.  No one picked it up, but when I ordered in the morning it was only a 15 minutes wait for delivery.  So good.  Second issue was that my room was directly next to their A/C Heating Unit outside and when I ran the A/C in my room it was quite loud.  Third issue was that for some reason, I could only get lukewarm water for my shower.  When I checked out, I mentioned most of these issues to front desk and they were very concerned that my experience was not exceptional, and made compensation for that through points.  I realize that if I notified them of these issues, they would have moved me to another room, but for me that it too much of a hassle, so I just stayed put for 5 days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r457385130-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>457385130</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t>Very positive experience</t>
+  </si>
+  <si>
+    <t>When you think of a Holiday Inn, one would assume a basic level of 3* accommodation that is good for a night's stay - how wrong I was about this hotel. Located in rural northern Houston, the hotel is modern with well equipped, spacious rooms. The room was large and modern offering a large bed (not two singles pushed together), a work area, separate lounge area, and separate bathroom area. The service by all staff was fantastic, from the reception staff to the bar staff to the restaurant waiting staff. I could not fault any individual for not delivering anything other than an exceptionally high level of customer service at all times. The buffet breakfast offered in the morning offered all that one could want, and there's complimentary coffee offered near reception every morning. I have to admit, I was very pleasantly surprised by this Holiday Inn. It has completely changed my perception of this hotel brand.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2017</t>
+  </si>
+  <si>
+    <t>When you think of a Holiday Inn, one would assume a basic level of 3* accommodation that is good for a night's stay - how wrong I was about this hotel. Located in rural northern Houston, the hotel is modern with well equipped, spacious rooms. The room was large and modern offering a large bed (not two singles pushed together), a work area, separate lounge area, and separate bathroom area. The service by all staff was fantastic, from the reception staff to the bar staff to the restaurant waiting staff. I could not fault any individual for not delivering anything other than an exceptionally high level of customer service at all times. The buffet breakfast offered in the morning offered all that one could want, and there's complimentary coffee offered near reception every morning. I have to admit, I was very pleasantly surprised by this Holiday Inn. It has completely changed my perception of this hotel brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r454330989-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>454330989</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>😢 In a state of shock</t>
+  </si>
+  <si>
+    <t>The photo posted below is of my first review I did of this property in September 2016; exactly 4 months ago this week!! There you will see where I titled my review as a "Diamond Award Nominee" property; not the case this week! No. As I sit here in my Room (526), I have tears streaming down my face just baffled. My 2 daughters and I were sitting in Mr. Treys section; whom of which we absolutely love, but across from us was a very loud, drunken and vulgar woman! Every word out of her filthy mouth was a curse word. Not everyone is raised in such an environment. So I informed the supervisor THOMAS about it and he literally does nothing! Instead Thomas informs ME that this woman and her table are such good people. His exact words! I asked both Thomas and the woman to apologize to my children and the response was, "I'll pass. That's not happening. There's no need." Great friends/"good" customers you have there sir. This is a family hotel and restaurant! So I thought. To Mr. Trey and Mr. Matt at the front desk, I do appreciate the apology from you all over how I was treated by that woman and by Thomas; however, that was not for you both to do. Thank you Thomas for wanting to send my children ice cream to cover up what happend just moments ago! We declined your...The photo posted below is of my first review I did of this property in September 2016; exactly 4 months ago this week!! There you will see where I titled my review as a "Diamond Award Nominee" property; not the case this week! No. As I sit here in my Room (526), I have tears streaming down my face just baffled. My 2 daughters and I were sitting in Mr. Treys section; whom of which we absolutely love, but across from us was a very loud, drunken and vulgar woman! Every word out of her filthy mouth was a curse word. Not everyone is raised in such an environment. So I informed the supervisor THOMAS about it and he literally does nothing! Instead Thomas informs ME that this woman and her table are such good people. His exact words! I asked both Thomas and the woman to apologize to my children and the response was, "I'll pass. That's not happening. There's no need." Great friends/"good" customers you have there sir. This is a family hotel and restaurant! So I thought. To Mr. Trey and Mr. Matt at the front desk, I do appreciate the apology from you all over how I was treated by that woman and by Thomas; however, that was not for you both to do. Thank you Thomas for wanting to send my children ice cream to cover up what happend just moments ago! We declined your kind offer Mr. David, please call me at your earliest convenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2017</t>
+  </si>
+  <si>
+    <t>The photo posted below is of my first review I did of this property in September 2016; exactly 4 months ago this week!! There you will see where I titled my review as a "Diamond Award Nominee" property; not the case this week! No. As I sit here in my Room (526), I have tears streaming down my face just baffled. My 2 daughters and I were sitting in Mr. Treys section; whom of which we absolutely love, but across from us was a very loud, drunken and vulgar woman! Every word out of her filthy mouth was a curse word. Not everyone is raised in such an environment. So I informed the supervisor THOMAS about it and he literally does nothing! Instead Thomas informs ME that this woman and her table are such good people. His exact words! I asked both Thomas and the woman to apologize to my children and the response was, "I'll pass. That's not happening. There's no need." Great friends/"good" customers you have there sir. This is a family hotel and restaurant! So I thought. To Mr. Trey and Mr. Matt at the front desk, I do appreciate the apology from you all over how I was treated by that woman and by Thomas; however, that was not for you both to do. Thank you Thomas for wanting to send my children ice cream to cover up what happend just moments ago! We declined your...The photo posted below is of my first review I did of this property in September 2016; exactly 4 months ago this week!! There you will see where I titled my review as a "Diamond Award Nominee" property; not the case this week! No. As I sit here in my Room (526), I have tears streaming down my face just baffled. My 2 daughters and I were sitting in Mr. Treys section; whom of which we absolutely love, but across from us was a very loud, drunken and vulgar woman! Every word out of her filthy mouth was a curse word. Not everyone is raised in such an environment. So I informed the supervisor THOMAS about it and he literally does nothing! Instead Thomas informs ME that this woman and her table are such good people. His exact words! I asked both Thomas and the woman to apologize to my children and the response was, "I'll pass. That's not happening. There's no need." Great friends/"good" customers you have there sir. This is a family hotel and restaurant! So I thought. To Mr. Trey and Mr. Matt at the front desk, I do appreciate the apology from you all over how I was treated by that woman and by Thomas; however, that was not for you both to do. Thank you Thomas for wanting to send my children ice cream to cover up what happend just moments ago! We declined your kind offer Mr. David, please call me at your earliest convenience.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r450441205-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
@@ -588,30 +852,72 @@
 Mark the barman is as as good as you'll find and as good an advert for a property you'll find. The team in the restaurant, Thomas, Sara, Zach, Trey (sorry if I missed anybody out) do everything to ensure your visit is fine. Finally the food. Fabulous. I think I've put on pounds. The bone in ribeye is a treat and chef knows how to cook. Perfectly seasoned and right temperature. Be warned though the portions are big even by Texas standards. If you can eat a starter and an entree you're a better person than me. Think I ate almost every dish on the menu...Previously visited some months back so decided to book again as I was in the are for three weeks or so. Great place and people. Excellent check in and service from the front desk. Accommodation is new, spotlessly clean and housekeeping do a great job and respect the do not disturb sign if you're looking for a lay in. Also go about their job quietly and effectively. The a/c is good and the beds awesome. Better than many Intercons. The pool is great and also has good access including a purpose built lift if you're not so mobile. Nice touch! Gym is small but well equipped. The residents laundry is also clean and new.One fantastic feature of this property in Johnny's. Breakfast is a feast. Lots of choice and the service extremely good.Mark the barman is as as good as you'll find and as good an advert for a property you'll find. The team in the restaurant, Thomas, Sara, Zach, Trey (sorry if I missed anybody out) do everything to ensure your visit is fine. Finally the food. Fabulous. I think I've put on pounds. The bone in ribeye is a treat and chef knows how to cook. Perfectly seasoned and right temperature. Be warned though the portions are big even by Texas standards. If you can eat a starter and an entree you're a better person than me. Think I ate almost every dish on the menu and some that aren't as they'll accommodate anything you fancy. I would particularly recommend the Sinatra, bone in ribeye, seafood pasta or Dubargo mignon. Prices are very reasonable too. Best Holiday Inn I've stayed in worldwide and I've stayed in a fewMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r432725113-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>432725113</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>Very positive experience!</t>
+  </si>
+  <si>
+    <t>Had a great experience at  Holiday Inn &amp; Suites Shenandoah during our stay. Our room was very clean and spacious, with great decor. The hotel had a great location and was close to many different dining and entertainment options. The staff were also very friendly and more than happy to help us in any way they could. Would definitely recommend if you are in the Woodlands area!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Had a great experience at  Holiday Inn &amp; Suites Shenandoah during our stay. Our room was very clean and spacious, with great decor. The hotel had a great location and was close to many different dining and entertainment options. The staff were also very friendly and more than happy to help us in any way they could. Would definitely recommend if you are in the Woodlands area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r431040132-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>431040132</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Lovely Staff</t>
+  </si>
+  <si>
+    <t>Had a lovely time staying here. One of the best Holiday Inns I have stayed at Staff were very friendly (especially restaurant staff) the room was comfortable and the hotel restaurant food was delicious! Would definitely recommend staying here. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Had a lovely time staying here. One of the best Holiday Inns I have stayed at Staff were very friendly (especially restaurant staff) the room was comfortable and the hotel restaurant food was delicious! Would definitely recommend staying here. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r430966347-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
     <t>430966347</t>
   </si>
   <si>
-    <t>10/23/2016</t>
-  </si>
-  <si>
     <t>Book now! Thank me later 😊</t>
   </si>
   <si>
     <t>We always stay here when we come to The Woodlands! Modern decor through out the hotel. Awesome pool and outdoor seating. Breakfast bar is the tops! Rooms are spick and span. Walk in shower is a added bonus.  Thumbs ups Highly Recommend!!! Love it here.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded October 31, 2016</t>
-  </si>
-  <si>
-    <t>Responded October 31, 2016</t>
-  </si>
-  <si>
     <t>We always stay here when we come to The Woodlands! Modern decor through out the hotel. Awesome pool and outdoor seating. Breakfast bar is the tops! Rooms are spick and span. Walk in shower is a added bonus.  Thumbs ups Highly Recommend!!! Love it here.More</t>
   </si>
   <si>
@@ -666,6 +972,59 @@
     <t>Great stay! Extremely friendly staff.  New modern rooms and the best breakfast bar I've ever experienced! Very comfortable beds and big screen tv. I would definitely stay here again. The only suggestion I would have would be for stronger Wi-Fi in the rooms. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r416181368-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>416181368</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Leisure Once/Business Follow-up</t>
+  </si>
+  <si>
+    <t>I've actually stayed at this hotel twice. Once in June for a Jimmy Buffett concert at the nearby Cynthia Mitchell Pavilion and then again in August for a business trip. I found this hotel a little bit better for leisure than for business but still a good solid choice for the area. It is a newer property so very clean, but certain little things like lack of choice of TV channels, limited restaurants and shops on the side of the freeway the hotel is on, made it better for leisure. Mainly because when I was there for fun, I didn't care to watch TV and was going out to eat and shop as one of the main reasons for the visit. For work though, after a long day, I just wanted to be able to grab something to eat within walking distance of the hotel and turn on Bravo...both of which I couldn't do here. I did try their on site restaurant once because it was right there and it was okay but a little heavy for a solitary work dinner at the end of the day. The area is growing and very close to The Woodlands so I might stay here again. Although, come to think of it, I didn't get welcome bonus points as a platinum rewards member...instead I got a welcome note saying they were glad to have me. I've never not received 500 welcome points before...perhaps...I've actually stayed at this hotel twice. Once in June for a Jimmy Buffett concert at the nearby Cynthia Mitchell Pavilion and then again in August for a business trip. I found this hotel a little bit better for leisure than for business but still a good solid choice for the area. It is a newer property so very clean, but certain little things like lack of choice of TV channels, limited restaurants and shops on the side of the freeway the hotel is on, made it better for leisure. Mainly because when I was there for fun, I didn't care to watch TV and was going out to eat and shop as one of the main reasons for the visit. For work though, after a long day, I just wanted to be able to grab something to eat within walking distance of the hotel and turn on Bravo...both of which I couldn't do here. I did try their on site restaurant once because it was right there and it was okay but a little heavy for a solitary work dinner at the end of the day. The area is growing and very close to The Woodlands so I might stay here again. Although, come to think of it, I didn't get welcome bonus points as a platinum rewards member...instead I got a welcome note saying they were glad to have me. I've never not received 500 welcome points before...perhaps an oversight?MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I've actually stayed at this hotel twice. Once in June for a Jimmy Buffett concert at the nearby Cynthia Mitchell Pavilion and then again in August for a business trip. I found this hotel a little bit better for leisure than for business but still a good solid choice for the area. It is a newer property so very clean, but certain little things like lack of choice of TV channels, limited restaurants and shops on the side of the freeway the hotel is on, made it better for leisure. Mainly because when I was there for fun, I didn't care to watch TV and was going out to eat and shop as one of the main reasons for the visit. For work though, after a long day, I just wanted to be able to grab something to eat within walking distance of the hotel and turn on Bravo...both of which I couldn't do here. I did try their on site restaurant once because it was right there and it was okay but a little heavy for a solitary work dinner at the end of the day. The area is growing and very close to The Woodlands so I might stay here again. Although, come to think of it, I didn't get welcome bonus points as a platinum rewards member...instead I got a welcome note saying they were glad to have me. I've never not received 500 welcome points before...perhaps...I've actually stayed at this hotel twice. Once in June for a Jimmy Buffett concert at the nearby Cynthia Mitchell Pavilion and then again in August for a business trip. I found this hotel a little bit better for leisure than for business but still a good solid choice for the area. It is a newer property so very clean, but certain little things like lack of choice of TV channels, limited restaurants and shops on the side of the freeway the hotel is on, made it better for leisure. Mainly because when I was there for fun, I didn't care to watch TV and was going out to eat and shop as one of the main reasons for the visit. For work though, after a long day, I just wanted to be able to grab something to eat within walking distance of the hotel and turn on Bravo...both of which I couldn't do here. I did try their on site restaurant once because it was right there and it was okay but a little heavy for a solitary work dinner at the end of the day. The area is growing and very close to The Woodlands so I might stay here again. Although, come to think of it, I didn't get welcome bonus points as a platinum rewards member...instead I got a welcome note saying they were glad to have me. I've never not received 500 welcome points before...perhaps an oversight?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r415345971-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>415345971</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Holiday Inn &amp; Suites is definitely a Diamond Award Property </t>
+  </si>
+  <si>
+    <t>Definition meets all! "Ultimate luxury, sophistication and comfort with extraordinary physical attributes, meticulous personalized service, extensive amenities and impeccable standards of excellence."
+What can I say?! From the moment you step into the lobby, to the moment you turn the handle to open the door to your room; this hotel is literally spotless! The lobby is very warm and inviting as are the staff and hallways that lead to your room. 
+Checkin: David (front desk agent)
+What an amazing, kind and welcoming young man. I had the pleasure of checking in with David; of whom welcomed me to the Shenandoah property right as I walked in through the sliding glass doors. He thanked me for being an IHG Member and asked if it were my first time to the property, of which I said yes. Again he welcomed me and from there informed me of every amenity that this beautiful property had to offer; along with the surrounding area. 
+Housekeeping: Whomever cleaned ROOM 420, one can tell that this young lady/gentleman takes great pride in his or her work. Upon entering this room, you will see a spotless counter top with no finger prints that is neatly organized with all the amenities and commodities that you have at home. A bathroom that too is literally spotless and so well organized. The sheets and bedding in room 420, on both the king bed and sofa bed, were as if they were...Definition meets all! "Ultimate luxury, sophistication and comfort with extraordinary physical attributes, meticulous personalized service, extensive amenities and impeccable standards of excellence."What can I say?! From the moment you step into the lobby, to the moment you turn the handle to open the door to your room; this hotel is literally spotless! The lobby is very warm and inviting as are the staff and hallways that lead to your room. Checkin: David (front desk agent)What an amazing, kind and welcoming young man. I had the pleasure of checking in with David; of whom welcomed me to the Shenandoah property right as I walked in through the sliding glass doors. He thanked me for being an IHG Member and asked if it were my first time to the property, of which I said yes. Again he welcomed me and from there informed me of every amenity that this beautiful property had to offer; along with the surrounding area. Housekeeping: Whomever cleaned ROOM 420, one can tell that this young lady/gentleman takes great pride in his or her work. Upon entering this room, you will see a spotless counter top with no finger prints that is neatly organized with all the amenities and commodities that you have at home. A bathroom that too is literally spotless and so well organized. The sheets and bedding in room 420, on both the king bed and sofa bed, were as if they were just purchased and ironed..so crisp and fresh scented. My sister was once a secret shopper for the Gulf Coast, so therefore I knew what to look for when inspecting my room. Literally spotless! Job well done housekeeping! Dining: Johnny's Italian Steakhouse now this is a nice little jewel. Trey was my waiter. He too was very kind and knowledgeable about his department. He offered great menu selections as well as answering any question that I had about the food and how it was prepared. The breakfast bar was amazing to say the least. Randy (cook) who was over both the omelet station &amp; breakfast bar again was so kind and welcoming to me and my little family. Although we did not eat an omelet, his customer service skills were excellent when interacting with all guests; including myself. Pool and lounge area: The photos speak for themselves.Checkout: JeannieThe icing on the cake; so to say. What a wonderful young lady. Her smile, her spirit and her customer service will take her very high within this company. The moment you walk into the lobby, whether you're going into or out of, Jeannie makes certain that she says she hopes you have a lovely day...she does this with the warmest smile I have ever seen. Upon checking out, Jeannie asked how my stay was, if there were any questions or concerns I had; of which were no :) and then she invited me back to the property and thanked me for being a member again with IHG.To all who were mentioned in this review, thank you for such a memorable trip. I look forward to visiting you all again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Definition meets all! "Ultimate luxury, sophistication and comfort with extraordinary physical attributes, meticulous personalized service, extensive amenities and impeccable standards of excellence."
+What can I say?! From the moment you step into the lobby, to the moment you turn the handle to open the door to your room; this hotel is literally spotless! The lobby is very warm and inviting as are the staff and hallways that lead to your room. 
+Checkin: David (front desk agent)
+What an amazing, kind and welcoming young man. I had the pleasure of checking in with David; of whom welcomed me to the Shenandoah property right as I walked in through the sliding glass doors. He thanked me for being an IHG Member and asked if it were my first time to the property, of which I said yes. Again he welcomed me and from there informed me of every amenity that this beautiful property had to offer; along with the surrounding area. 
+Housekeeping: Whomever cleaned ROOM 420, one can tell that this young lady/gentleman takes great pride in his or her work. Upon entering this room, you will see a spotless counter top with no finger prints that is neatly organized with all the amenities and commodities that you have at home. A bathroom that too is literally spotless and so well organized. The sheets and bedding in room 420, on both the king bed and sofa bed, were as if they were...Definition meets all! "Ultimate luxury, sophistication and comfort with extraordinary physical attributes, meticulous personalized service, extensive amenities and impeccable standards of excellence."What can I say?! From the moment you step into the lobby, to the moment you turn the handle to open the door to your room; this hotel is literally spotless! The lobby is very warm and inviting as are the staff and hallways that lead to your room. Checkin: David (front desk agent)What an amazing, kind and welcoming young man. I had the pleasure of checking in with David; of whom welcomed me to the Shenandoah property right as I walked in through the sliding glass doors. He thanked me for being an IHG Member and asked if it were my first time to the property, of which I said yes. Again he welcomed me and from there informed me of every amenity that this beautiful property had to offer; along with the surrounding area. Housekeeping: Whomever cleaned ROOM 420, one can tell that this young lady/gentleman takes great pride in his or her work. Upon entering this room, you will see a spotless counter top with no finger prints that is neatly organized with all the amenities and commodities that you have at home. A bathroom that too is literally spotless and so well organized. The sheets and bedding in room 420, on both the king bed and sofa bed, were as if they were just purchased and ironed..so crisp and fresh scented. My sister was once a secret shopper for the Gulf Coast, so therefore I knew what to look for when inspecting my room. Literally spotless! Job well done housekeeping! Dining: Johnny's Italian Steakhouse now this is a nice little jewel. Trey was my waiter. He too was very kind and knowledgeable about his department. He offered great menu selections as well as answering any question that I had about the food and how it was prepared. The breakfast bar was amazing to say the least. Randy (cook) who was over both the omelet station &amp; breakfast bar again was so kind and welcoming to me and my little family. Although we did not eat an omelet, his customer service skills were excellent when interacting with all guests; including myself. Pool and lounge area: The photos speak for themselves.Checkout: JeannieThe icing on the cake; so to say. What a wonderful young lady. Her smile, her spirit and her customer service will take her very high within this company. The moment you walk into the lobby, whether you're going into or out of, Jeannie makes certain that she says she hopes you have a lovely day...she does this with the warmest smile I have ever seen. Upon checking out, Jeannie asked how my stay was, if there were any questions or concerns I had; of which were no :) and then she invited me back to the property and thanked me for being a member again with IHG.To all who were mentioned in this review, thank you for such a memorable trip. I look forward to visiting you all again. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r400935596-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -681,9 +1040,6 @@
     <t>First off, let me start off by saying I was absolutely blown away when I walked into the lobby. The hotel is difficult to find, and looks pretty standard from the inside. However, when you walk in, it honestly looks like a 5-star restaurant. The decor is so upscale, and the service is absolutely phenomenal! I stayed in a King Suite during my stay, and it was great! The beds are nice and firm with tons of pillows, and the rooms are very spacious. One negative was that I did have an issue with the water while I was there, when I went in for a shower the water was scalding hot and I was unable to lower it. However, the next day when I tried again, I didn't have any issues! Not too sure what had happened. The restaurant in the hotel, Johnny's, is a hidden gem in the Woodlands! The food is phenomenal and the servers are always right there to greet and serve with open arms. This hotel has quickly risen to be a favorite in the greater Houston area. Definitely check in out if you're ever here!MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>First off, let me start off by saying I was absolutely blown away when I walked into the lobby. The hotel is difficult to find, and looks pretty standard from the inside. However, when you walk in, it honestly looks like a 5-star restaurant. The decor is so upscale, and the service is absolutely phenomenal! I stayed in a King Suite during my stay, and it was great! The beds are nice and firm with tons of pillows, and the rooms are very spacious. One negative was that I did have an issue with the water while I was there, when I went in for a shower the water was scalding hot and I was unable to lower it. However, the next day when I tried again, I didn't have any issues! Not too sure what had happened. The restaurant in the hotel, Johnny's, is a hidden gem in the Woodlands! The food is phenomenal and the servers are always right there to greet and serve with open arms. This hotel has quickly risen to be a favorite in the greater Houston area. Definitely check in out if you're ever here!More</t>
   </si>
   <si>
@@ -735,6 +1091,54 @@
     <t>I was traveling here with my son and disabled brother to visit relatives. This hotel was the nicest H I I have ever visited. Loved the room layout. Super comfy beds. Pool was large enough to do laps. There were pool toys for kids. The breakfast buffet was perfect. The dinner we had was super. Don't skip dessert. Margo, the waitress, and the staff were  super kind to my brother. He did not want to leave. Carlos the evening waiter was a delight. Emily the front desk person was very professional and kind. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r393460897-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>393460897</t>
+  </si>
+  <si>
+    <t>Not your average Holiday Inn</t>
+  </si>
+  <si>
+    <t>New property. Extremely helpful staff who can't do too much for their guests. Good bar serving local beers, breakfast buffet much better than average. Didn't get chance to eat in the evening but what I saw looked good. Accommodation is spotless with a good bathroom area. Had a room with lounge and kitchen area. Very comfortable bed but lounge a little lacking in natural light as only one window in the bedroom area. Would certainly recommend this hotel. Not your average run down Holiday Inn but a modern example of what the brand should be.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2016</t>
+  </si>
+  <si>
+    <t>New property. Extremely helpful staff who can't do too much for their guests. Good bar serving local beers, breakfast buffet much better than average. Didn't get chance to eat in the evening but what I saw looked good. Accommodation is spotless with a good bathroom area. Had a room with lounge and kitchen area. Very comfortable bed but lounge a little lacking in natural light as only one window in the bedroom area. Would certainly recommend this hotel. Not your average run down Holiday Inn but a modern example of what the brand should be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r390780822-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>390780822</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gem 💎 of a Holiday Inn  </t>
+  </si>
+  <si>
+    <t>Brand new hotel with an amazing steakhouse right inside. Very easy access to I45. Great staff and amenities. The pool area is beautiful. Great place and big enough for any event/conventions. Will stay here again in the future. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Brand new hotel with an amazing steakhouse right inside. Very easy access to I45. Great staff and amenities. The pool area is beautiful. Great place and big enough for any event/conventions. Will stay here again in the future. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r390259796-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -750,9 +1154,6 @@
     <t>This place is brand new, clean, the staff and owners are extremely friendly and helpful! Gary (one of the owners) is one of the nicest guys I have ever met! Will be using this hotel every time I go to Houston.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Thomas M, Manager at Holiday Inn Hotel &amp; Suites - Shenandoah, responded to this reviewResponded July 14, 2016</t>
   </si>
   <si>
@@ -792,6 +1193,58 @@
     <t>Stayed here July 4th weekend, this Hotel is beautiful and the staff is extremely polite. I will definitely be staying here more often. The steakhouse inside this hotel serves great food, by far one of the best steaks I've had in a long, long, long time. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r389498234-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>389498234</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Some was good - Some was not good - You decide</t>
+  </si>
+  <si>
+    <t>When we got there there was no one at the front desk for quite a while.
+I called the number for the front desk and no one answered.
+When she came she was really friendly and helpful so that was a plus. 
+She had worked 1pm - 1am two days in a row. 
+I asked what time check out was and she said noon but we could ask for a 2:00pm checkout and so we did and she filled out the paperwork for that. We only had a very short amount of time for this mini-vacation and wanted to get the most out of it. 
+We asked what time the pool closed and she said 10:00pm. I thought that was a little early for a holiday weekend. 
+All over the internet it said that breakfast was included in our room price. We went down for breakfast only to be told that they don't do that anymore and that the buffet is based upon occupancy. I showed him where it said online that breakfast was included so he said he would talk with the restaurant manager. He came back and said that he was wrong, they did have the buffet and he would get us vouchers. I am glad I pressed the issue. 
+The breakfast was great! 
+We were about to go swimming and we were told that the pool was closed for treatment until 12:30pm. HELLO!!! You close the pool...When we got there there was no one at the front desk for quite a while.I called the number for the front desk and no one answered.When she came she was really friendly and helpful so that was a plus. She had worked 1pm - 1am two days in a row. I asked what time check out was and she said noon but we could ask for a 2:00pm checkout and so we did and she filled out the paperwork for that. We only had a very short amount of time for this mini-vacation and wanted to get the most out of it. We asked what time the pool closed and she said 10:00pm. I thought that was a little early for a holiday weekend. All over the internet it said that breakfast was included in our room price. We went down for breakfast only to be told that they don't do that anymore and that the buffet is based upon occupancy. I showed him where it said online that breakfast was included so he said he would talk with the restaurant manager. He came back and said that he was wrong, they did have the buffet and he would get us vouchers. I am glad I pressed the issue. The breakfast was great! We were about to go swimming and we were told that the pool was closed for treatment until 12:30pm. HELLO!!! You close the pool at 10:00 every night why can't you treat it then?So, if we didn't have a late checkout there was no way we would have been able to swim. THE WHOLE REASON I PICKED THIS HOTEL WAS BECAUSE I LIKED THE POOL!!! We went to the mall and made it back with enough time to swim, clean up and pack. We weren't prepared for ANOTHER delay. We got to our room and the key wouldn't work. My husband had to go all the way back down to the desk to get it fixed. That shortened our swim time. There was a room service tray on the floor in the hallway and a little bit of milk had obviously spilled onto the carpet. That milk was visible on the carpet the rest of the time we were there, slowly seeping into the carpet. Housekeeping staff was all around us and never bothered to clean it up. Now I look at my credit card statement and the temporary authorization is for $25 more than what my total price was supposed to be. I will be watching that and if it stays that price I will be calling them.  We do not plan to go back to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>When we got there there was no one at the front desk for quite a while.
+I called the number for the front desk and no one answered.
+When she came she was really friendly and helpful so that was a plus. 
+She had worked 1pm - 1am two days in a row. 
+I asked what time check out was and she said noon but we could ask for a 2:00pm checkout and so we did and she filled out the paperwork for that. We only had a very short amount of time for this mini-vacation and wanted to get the most out of it. 
+We asked what time the pool closed and she said 10:00pm. I thought that was a little early for a holiday weekend. 
+All over the internet it said that breakfast was included in our room price. We went down for breakfast only to be told that they don't do that anymore and that the buffet is based upon occupancy. I showed him where it said online that breakfast was included so he said he would talk with the restaurant manager. He came back and said that he was wrong, they did have the buffet and he would get us vouchers. I am glad I pressed the issue. 
+The breakfast was great! 
+We were about to go swimming and we were told that the pool was closed for treatment until 12:30pm. HELLO!!! You close the pool...When we got there there was no one at the front desk for quite a while.I called the number for the front desk and no one answered.When she came she was really friendly and helpful so that was a plus. She had worked 1pm - 1am two days in a row. I asked what time check out was and she said noon but we could ask for a 2:00pm checkout and so we did and she filled out the paperwork for that. We only had a very short amount of time for this mini-vacation and wanted to get the most out of it. We asked what time the pool closed and she said 10:00pm. I thought that was a little early for a holiday weekend. All over the internet it said that breakfast was included in our room price. We went down for breakfast only to be told that they don't do that anymore and that the buffet is based upon occupancy. I showed him where it said online that breakfast was included so he said he would talk with the restaurant manager. He came back and said that he was wrong, they did have the buffet and he would get us vouchers. I am glad I pressed the issue. The breakfast was great! We were about to go swimming and we were told that the pool was closed for treatment until 12:30pm. HELLO!!! You close the pool at 10:00 every night why can't you treat it then?So, if we didn't have a late checkout there was no way we would have been able to swim. THE WHOLE REASON I PICKED THIS HOTEL WAS BECAUSE I LIKED THE POOL!!! We went to the mall and made it back with enough time to swim, clean up and pack. We weren't prepared for ANOTHER delay. We got to our room and the key wouldn't work. My husband had to go all the way back down to the desk to get it fixed. That shortened our swim time. There was a room service tray on the floor in the hallway and a little bit of milk had obviously spilled onto the carpet. That milk was visible on the carpet the rest of the time we were there, slowly seeping into the carpet. Housekeeping staff was all around us and never bothered to clean it up. Now I look at my credit card statement and the temporary authorization is for $25 more than what my total price was supposed to be. I will be watching that and if it stays that price I will be calling them.  We do not plan to go back to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r382179229-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>382179229</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>They got this one right</t>
+  </si>
+  <si>
+    <t>Clean, spacious and serene. Place is brand new and is nestled in a quiet wooded area.  Just minutes from the Woodlands. Planned to head to Hughes landing for dinner my first night and much to my delight saw that this hotel has a Johnny's steakhouse. I had eaten at one in Ohio for prior business trip.  Swanky bar and beautiful dining space. Decided to try a filet and it was cooked to perfection. They carry a nice inventory of wines and cocktails.  Great option if you are looking to avoid the busy woodlands area but want to be close by.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d8553268-r376824377-Holiday_Inn_Hotel_Suites_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -847,9 +1300,6 @@
   </si>
   <si>
     <t>Nestled in the city of Shenandoah, Texas, this Holiday Inn makes its grand appearance.  Its location is serene.  The staff is friendly and helpful.  There's a modern supper club in the hotel, Johnny's Italian Steakhouse.  I ordered the Veal Milanese coupled with the Crusted Goat Cheese Salad.  Every morsel was heavenly.  The hotel is immaculate.  Whenever you return to Shenandoah, Texas, you'll look for this Star !</t>
-  </si>
-  <si>
-    <t>April 2016</t>
   </si>
 </sst>
 </file>
@@ -1377,21 +1827,11 @@
       <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1403,9 +1843,7 @@
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
-      <c r="Y2" t="s">
-        <v>51</v>
-      </c>
+      <c r="Y2" t="s"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1420,52 +1858,48 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -1481,48 +1915,52 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
       <c r="O4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -1538,34 +1976,34 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>69</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1579,7 +2017,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1595,34 +2033,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1636,7 +2074,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1652,44 +2090,44 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
         <v>81</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>82</v>
       </c>
-      <c r="J7" t="s">
+      <c r="O7" t="s">
         <v>83</v>
-      </c>
-      <c r="K7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1697,7 +2135,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1713,34 +2151,34 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>86</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>87</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>88</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>89</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>90</v>
       </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>91</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1750,19 +2188,15 @@
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>92</v>
-      </c>
-      <c r="X8" t="s">
-        <v>93</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -1778,34 +2212,34 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
         <v>95</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1819,7 +2253,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -1835,52 +2269,48 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
         <v>100</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>101</v>
       </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" t="s">
-        <v>104</v>
-      </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -1896,7 +2326,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1905,39 +2335,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1953,7 +2387,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1962,33 +2396,33 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O12" t="s">
-        <v>105</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="n">
         <v>4</v>
       </c>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
@@ -2000,7 +2434,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -2016,7 +2450,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2025,39 +2459,47 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="X13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -2073,52 +2515,56 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
         <v>127</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" t="s">
-        <v>130</v>
-      </c>
-      <c r="L14" t="s">
-        <v>131</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>117</v>
-      </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="X14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -2134,34 +2580,34 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
         <v>133</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>134</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>135</v>
       </c>
-      <c r="K15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L15" t="s">
-        <v>137</v>
-      </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2172,14 +2618,10 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>139</v>
-      </c>
-      <c r="X15" t="s">
-        <v>140</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
@@ -2195,7 +2637,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2204,39 +2646,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+      <c r="N16" t="s">
+        <v>127</v>
+      </c>
+      <c r="O16" t="s">
+        <v>91</v>
+      </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>124</v>
-      </c>
-      <c r="X16" t="s">
-        <v>125</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
@@ -2252,7 +2698,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2261,43 +2707,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>154</v>
-      </c>
-      <c r="X17" t="s">
-        <v>155</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
@@ -2313,7 +2759,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2322,49 +2768,39 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
-        <v>105</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>154</v>
-      </c>
-      <c r="X18" t="s">
-        <v>155</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
@@ -2380,7 +2816,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2389,45 +2825,39 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
@@ -2443,7 +2873,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2452,34 +2882,34 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="O20" t="s">
-        <v>74</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2490,7 +2920,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
@@ -2506,7 +2936,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2515,43 +2945,39 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
-      <c r="N21" t="s">
-        <v>181</v>
-      </c>
-      <c r="O21" t="s">
-        <v>53</v>
-      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>169</v>
+      </c>
+      <c r="X21" t="s">
+        <v>170</v>
+      </c>
       <c r="Y21" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
@@ -2567,7 +2993,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2576,25 +3002,25 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2609,10 +3035,14 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>169</v>
+      </c>
+      <c r="X22" t="s">
+        <v>170</v>
+      </c>
       <c r="Y22" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
@@ -2628,7 +3058,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2637,25 +3067,25 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2667,13 +3097,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="X23" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="Y23" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -2689,7 +3119,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2698,25 +3128,25 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="J24" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="O24" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2728,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="X24" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="Y24" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
@@ -2750,7 +3180,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2759,25 +3189,25 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2789,13 +3219,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="X25" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="Y25" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26">
@@ -2811,7 +3241,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2820,49 +3250,39 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="J26" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>219</v>
-      </c>
-      <c r="O26" t="s">
-        <v>105</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="X26" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="Y26" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27">
@@ -2878,7 +3298,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2887,43 +3307,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="J27" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="K27" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="X27" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="Y27" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
@@ -2939,7 +3365,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -2948,43 +3374,47 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="J28" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="X28" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="Y28" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
@@ -3000,7 +3430,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3009,25 +3439,25 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="J29" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="O29" t="s">
-        <v>242</v>
+        <v>83</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3039,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="X29" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="Y29" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
@@ -3061,7 +3491,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3070,32 +3500,34 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="J30" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="K30" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s">
-        <v>242</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3104,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="X30" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="Y30" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31">
@@ -3126,7 +3558,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3135,43 +3567,45 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="J31" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O31" t="s">
-        <v>242</v>
+        <v>83</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>243</v>
-      </c>
-      <c r="X31" t="s">
-        <v>244</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3621,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3196,33 +3630,31 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="J32" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="L32" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="O32" t="s">
-        <v>105</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -3232,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="X32" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="Y32" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33">
@@ -3254,7 +3686,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3263,45 +3695,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="K33" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="O33" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>253</v>
+      </c>
+      <c r="X33" t="s">
+        <v>254</v>
+      </c>
       <c r="Y33" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34">
@@ -3317,7 +3747,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3326,31 +3756,31 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="J34" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="K34" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="L34" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
       <c r="S34" t="n">
         <v>5</v>
       </c>
@@ -3364,7 +3794,1383 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>263</v>
+      </c>
+      <c r="J35" t="s">
+        <v>264</v>
+      </c>
+      <c r="K35" t="s">
+        <v>265</v>
+      </c>
+      <c r="L35" t="s">
+        <v>266</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>267</v>
+      </c>
+      <c r="O35" t="s">
+        <v>56</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>269</v>
+      </c>
+      <c r="J36" t="s">
+        <v>270</v>
+      </c>
+      <c r="K36" t="s">
+        <v>271</v>
+      </c>
+      <c r="L36" t="s">
+        <v>272</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>267</v>
+      </c>
+      <c r="O36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
         <v>274</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>275</v>
+      </c>
+      <c r="J37" t="s">
+        <v>276</v>
+      </c>
+      <c r="K37" t="s">
+        <v>277</v>
+      </c>
+      <c r="L37" t="s">
+        <v>278</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>279</v>
+      </c>
+      <c r="O37" t="s">
+        <v>56</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>280</v>
+      </c>
+      <c r="X37" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>283</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>284</v>
+      </c>
+      <c r="J38" t="s">
+        <v>285</v>
+      </c>
+      <c r="K38" t="s">
+        <v>286</v>
+      </c>
+      <c r="L38" t="s">
+        <v>287</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>288</v>
+      </c>
+      <c r="O38" t="s">
+        <v>83</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>289</v>
+      </c>
+      <c r="X38" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>292</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>293</v>
+      </c>
+      <c r="J39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K39" t="s">
+        <v>294</v>
+      </c>
+      <c r="L39" t="s">
+        <v>295</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>288</v>
+      </c>
+      <c r="O39" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>289</v>
+      </c>
+      <c r="X39" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>297</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>298</v>
+      </c>
+      <c r="J40" t="s">
+        <v>299</v>
+      </c>
+      <c r="K40" t="s">
+        <v>300</v>
+      </c>
+      <c r="L40" t="s">
+        <v>301</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>288</v>
+      </c>
+      <c r="O40" t="s">
+        <v>83</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>302</v>
+      </c>
+      <c r="X40" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>305</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>306</v>
+      </c>
+      <c r="J41" t="s">
+        <v>307</v>
+      </c>
+      <c r="K41" t="s">
+        <v>308</v>
+      </c>
+      <c r="L41" t="s">
+        <v>309</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>310</v>
+      </c>
+      <c r="O41" t="s">
+        <v>56</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>311</v>
+      </c>
+      <c r="X41" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>315</v>
+      </c>
+      <c r="J42" t="s">
+        <v>316</v>
+      </c>
+      <c r="K42" t="s">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s">
+        <v>318</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>319</v>
+      </c>
+      <c r="O42" t="s">
+        <v>83</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>311</v>
+      </c>
+      <c r="X42" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>321</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>322</v>
+      </c>
+      <c r="J43" t="s">
+        <v>323</v>
+      </c>
+      <c r="K43" t="s">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s">
+        <v>325</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>310</v>
+      </c>
+      <c r="O43" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>326</v>
+      </c>
+      <c r="X43" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>330</v>
+      </c>
+      <c r="J44" t="s">
+        <v>331</v>
+      </c>
+      <c r="K44" t="s">
+        <v>332</v>
+      </c>
+      <c r="L44" t="s">
+        <v>333</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>279</v>
+      </c>
+      <c r="O44" t="s">
+        <v>91</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>311</v>
+      </c>
+      <c r="X44" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>335</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>336</v>
+      </c>
+      <c r="J45" t="s">
+        <v>337</v>
+      </c>
+      <c r="K45" t="s">
+        <v>338</v>
+      </c>
+      <c r="L45" t="s">
+        <v>339</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>279</v>
+      </c>
+      <c r="O45" t="s">
+        <v>83</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>340</v>
+      </c>
+      <c r="X45" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>343</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>344</v>
+      </c>
+      <c r="J46" t="s">
+        <v>345</v>
+      </c>
+      <c r="K46" t="s">
+        <v>346</v>
+      </c>
+      <c r="L46" t="s">
+        <v>347</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>279</v>
+      </c>
+      <c r="O46" t="s">
+        <v>56</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>348</v>
+      </c>
+      <c r="X46" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>351</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>352</v>
+      </c>
+      <c r="J47" t="s">
+        <v>345</v>
+      </c>
+      <c r="K47" t="s">
+        <v>353</v>
+      </c>
+      <c r="L47" t="s">
+        <v>354</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>279</v>
+      </c>
+      <c r="O47" t="s">
+        <v>83</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>355</v>
+      </c>
+      <c r="X47" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>358</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>359</v>
+      </c>
+      <c r="J48" t="s">
+        <v>360</v>
+      </c>
+      <c r="K48" t="s">
+        <v>361</v>
+      </c>
+      <c r="L48" t="s">
+        <v>362</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>279</v>
+      </c>
+      <c r="O48" t="s">
+        <v>363</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>364</v>
+      </c>
+      <c r="X48" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>367</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>368</v>
+      </c>
+      <c r="J49" t="s">
+        <v>369</v>
+      </c>
+      <c r="K49" t="s">
+        <v>370</v>
+      </c>
+      <c r="L49" t="s">
+        <v>371</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>279</v>
+      </c>
+      <c r="O49" t="s">
+        <v>363</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>372</v>
+      </c>
+      <c r="X49" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>376</v>
+      </c>
+      <c r="J50" t="s">
+        <v>369</v>
+      </c>
+      <c r="K50" t="s">
+        <v>377</v>
+      </c>
+      <c r="L50" t="s">
+        <v>378</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>279</v>
+      </c>
+      <c r="O50" t="s">
+        <v>363</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>372</v>
+      </c>
+      <c r="X50" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>380</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>381</v>
+      </c>
+      <c r="J51" t="s">
+        <v>369</v>
+      </c>
+      <c r="K51" t="s">
+        <v>382</v>
+      </c>
+      <c r="L51" t="s">
+        <v>383</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>279</v>
+      </c>
+      <c r="O51" t="s">
+        <v>363</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>372</v>
+      </c>
+      <c r="X51" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>385</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>386</v>
+      </c>
+      <c r="J52" t="s">
+        <v>387</v>
+      </c>
+      <c r="K52" t="s">
+        <v>388</v>
+      </c>
+      <c r="L52" t="s">
+        <v>389</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>279</v>
+      </c>
+      <c r="O52" t="s">
+        <v>91</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>355</v>
+      </c>
+      <c r="X52" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>391</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>392</v>
+      </c>
+      <c r="J53" t="s">
+        <v>393</v>
+      </c>
+      <c r="K53" t="s">
+        <v>394</v>
+      </c>
+      <c r="L53" t="s">
+        <v>395</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>396</v>
+      </c>
+      <c r="O53" t="s">
+        <v>83</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>397</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>398</v>
+      </c>
+      <c r="J54" t="s">
+        <v>399</v>
+      </c>
+      <c r="K54" t="s">
+        <v>400</v>
+      </c>
+      <c r="L54" t="s">
+        <v>401</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>402</v>
+      </c>
+      <c r="O54" t="s">
+        <v>91</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>403</v>
+      </c>
+      <c r="X54" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>406</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>407</v>
+      </c>
+      <c r="J55" t="s">
+        <v>408</v>
+      </c>
+      <c r="K55" t="s">
+        <v>409</v>
+      </c>
+      <c r="L55" t="s">
+        <v>410</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>402</v>
+      </c>
+      <c r="O55" t="s">
+        <v>83</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63190</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>411</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>412</v>
+      </c>
+      <c r="J56" t="s">
+        <v>413</v>
+      </c>
+      <c r="K56" t="s">
+        <v>414</v>
+      </c>
+      <c r="L56" t="s">
+        <v>415</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>396</v>
+      </c>
+      <c r="O56" t="s">
+        <v>56</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
